--- a/data/train/relevancy-train-944601.xlsx
+++ b/data/train/relevancy-train-944601.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
+          <t>Page 11 of your testimony you recommend that Congress require the Clean Air Scientific Advisory Committee CASAC to comply with the Clean Air Act Section 109d and advise the Administrator of any adverse public health welfare social economic or energy effects which may result from various strategies for attainment and maintenance of air quality standards</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Likewise when insurance companies are able to pull their market power to negotiate lower rates there can be positive results</t>
+          <t>These types of facilitiesexempt wholesale generators or EWGsare not considered to be electric utility companies under PUHCA and in fact are exempt from all provisions of PUHCA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,17 +468,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Some are reliably available 24 hours a day and seven days a week and ideal for baseload power while others are not</t>
+          <t>Unfortunately due to nonmarket governmental forces giving preferential treatment to certain renewables two of these plants Byron and Dresden are now slated for closure</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
+          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
+          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,17 +498,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
+          <t>If they made use of the technology that the power industry was used to which was pointtopoint secured connections or in fact the same techniques that existed in the phone industry there wouldnt be an issue</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
+          <t>Again we dont have a tax imposed on a person who buys a gas guzzling SUV but we have a gas guzzler tax that we impose on an automobile</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
+          <t>We just spent 5281 million to retrofit one coal plant to put scrubbers on</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable diesel that lowers agricultural emissions is fully compatible with existing diesel assets and has a place at the table too</t>
+          <t>As Member of Congress from East Harris County and Houston Texas I have just literally hundreds of people who work offshore offshore Texas offshore literally all over the world and along with our infrastructure we still produce oil and natural gas in a very urbansuburban area but we also have refineries and chemical plants who need that product that is being produced</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,37 +538,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>She says As a result of shortsighted energy policies poor longterm planning and extensive rolling blackouts in 2020 CAISO petitioned FERC to make changes to its tariff related to transmission priority through California</t>
+          <t>The President proposed a clean energy standard to increase the amount of energy we get from renewable sources of energy as well as from nuclear and advanced natural gas plants similar to what Mr Barton proposed from the last Congress</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
+          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Our objectives area to exercise and perform the powers and duties assigned to the IMO under this Act the market rules and its licenceb enter into agreements with transmitters giving the IMO authority to direct the operations of their transmission systemsc direct the operations and maintain the reliability of the IMO controlled gridd establish and operate the IMOadministered marketse collect and provide to the public information relating to the current and future electricity needs of Ontario and the capacity of the integrated power system to meet those needsf participate in the development by any standards authority of standards and criteria relating to the reliability of transmissions systems andg work with responsible authorities outside Ontario to coordinate the IMOs activities with their activities</t>
+          <t>You have already got your nose under the tent with the emissions part of the car</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
+          <t>However it is doubtful that hydrogen demand will increase so rapidly as to adversely affect the supply of natural gas</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,17 +578,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The threat assessment also notes The greatest opportunities to limit the damage of covert NBC nuclear biological or chemical attacks or prevent them entirely exist during the first phases of the incident</t>
+          <t>I have introduced legislation with my friend Mr Doyle to make common sense reforms at the NRC to provide existing plants some relief but without a strong domestic industry how do we expect American technology and more importantly safety culture and nonproliferation standards to compete with staterun power companies like Russia and China</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>So the advantages that you would get from lets say maybe keeping a lid on the Brent price which affects gasoline pricethat advantage still exists and meanwhile the refineries are still operating</t>
+          <t>We employ really goodpaying jobs and it is not quite clear to us whether we are qualified under that but certainly we would think we should be because as a result right now there is about 6500000 barrels of oil of refining capacity that is being built outside of our borders much of which is being targeted to come into this country so if we dont have some similar protections and some guidelines we are concerned about leakage and ultimately increasing imports at the expense of our domestic production</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
+          <t>At the end of May working gas in storage stood about 38 percent below endofMay 2002 levels and 28 percent below the previous 5year average</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I hope this doesnt echo across the Administration and the great folks of the Department of Energy and the Congress</t>
+          <t>However it is crucial that there is parity among incentives such that they can be enjoyed by public power and investor owned utilities alike</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,37 +618,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+          <t>In Brazil where a high percentage of ethanol fuels are sold consumers do indeed consider energy content pricing rather than simply buying the cheapest fuel</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
+          <t>And in fact even as we speak here this afternoon officials in Louisiana are still waitingstill waiting for the Federal Government to provide millions of feet in boom to approve an emergency permit to fullynot partiallyimplement their plan to dredge and build a new barrier island to prevent even more oil from reaching their marshes and wetlands</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
+          <t>But I think you would agree with me that it has been in about the last 10 years or so that it has been used a lot more than it had been because of the necessity of getting some difficult natural gas out of the ground</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>They have been in use for years in places such as Texas in order to achieve enhanced oil recovery</t>
+          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Still despite these initiatives California remains in danger of power outages when demand for electricity climbs this summer</t>
+          <t>As Chairman Shimkus stated the 21st Century Transportation Fuel Act Discussion Draft takes a larger view of Federal transportation fuel policies</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+          <t>It is complete power</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>These two projects represent the future of coal</t>
+          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,37 +698,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
+          <t>bullet Allowing economies of scale in manufacturing installation operation and maintenance of renewable energy facilities</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
+          <t>In the energy study that was conducted last summer after the price spikes like we saw in California they found that a 25 percent reduction in their usage at peak times would have saved Californians 700 million last summer</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Electric cooperatives comprise a unique component of the industry</t>
+          <t>And so I think that to help wean Europe off of Russian energy this might be a good thing</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+          <t>For example we believe that production tax credits for renewables should be extended at least ten years and apply to as broad a spectrum of renewables as possible</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
+          <t>The Energy and Commerce Committee should continue to lead the effort to ensure the Federal government meets is moral and fiduciary responsibility to clean up its defense waste and ensure the permanent safe disposal of spent nuclear fuel</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Diesel trucks are paying 450 a gallon for diesel</t>
+          <t>I think the natural markets that have formed that have some reasonable transmission capability within that region so you can move significant amounts of power within that region is a good start</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,17 +758,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>test for generation market power Since beginning to grant marketbased rates rate deregulation to public utilities in the 1980s the Commission primarily focused on the applicant and employed a hubandspoke analysis to determine whether an individual entity and its affiliates have generation market power</t>
+          <t>Now we have lowcost fuel</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
+          <t>I am the Manager of the Yazoo City Public Service Commission the local electric utility serving Yazoo City Mississippi I am also a member of the APPA Board of Directors</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,47 +778,47 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>More importantly the draft language does not currently include language that would substantially thwart the Federal Energy Regulatory Commissions FERC current efforts for continued industry restructuring</t>
+          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+          <t>As a sector we use 40 quads of energy and this has basically not changed in 40 years</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+          <t>Recently the Subcommittee received testimony it would take at least seven to nine years to just to begin transporting used fuel regardless when a site is available</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+          <t>The US Senate has twice passed a RPS and the majority of Senators on the energy bill conference supported the Bingaman RPS amendment</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,27 +828,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>This outbreak prompted Congress to act with the Energy and Commerce Committee taking the lead in the House through a series of investigations and hearings on the issue</t>
+          <t>As I say in the blueprint here using energy more efficiently is akin to developing more fuel</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>And while it is so exciting to have vehicles that are keyless and others that turn off and on for energy efficiency and others that will be plugged in this committees work is going to have to continue to make sure that we are doing the things we do to keep people safe</t>
+          <t>He goes on to say there is sufficient technical basis for the Nuclear Regulatory Commission to issue a license authorizing construction of the facility</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
+          <t>Right now today natural gas is not competitive in a lot of markets because of the price of fuel and on a 20year levelized cost of electricity dollars per megawatt pulverized coal with CO2 capture is 62 bucks</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,17 +858,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>They were the recipient of a promise by the Federal Government and the Department of Energy</t>
+          <t>On the third page of this document listed are two independent spent fuel storage installations</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>It is in the national interest and the interest for our economy to get this going and Texans we are understanding of energy issues and the necessity of getting energy to market</t>
+          <t>That was in my energy business</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,37 +878,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>There were no septic systems no water systems and they ended up drilling their own wells and they become really a problem</t>
+          <t>Integrity Management Rule for Natural Gas Transmission OPS issued the integrity management rule for natural gas transmission lines on December 12 2003</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rush I think too you know in the future we would do well to include Ms Glover in future discussions because energy efficiency sometimes just kind of gets pushed to the side</t>
+          <t>And a lot of it had to do with deregulating our domestic environment and making a whole suite of challenges and deciding that we were going to commit to this internationally connected and efficient market for oil and gas and things like that</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Would todays discussion draft make it easier for companies to install newer and cleaner equipment at existing facilities</t>
+          <t>Do you as Commissioner Norris stated the question is not whether we reduce carbon pollution but how and EPA has an answer embodied in the Clean Power Plan and that is what they are proposing as a start</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+          <t>The number of oil rigs operating in the United States has quadrupled in just the past 3 years</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+          <t>Secondly the volume of trading in the carbon market will be at least 300 times greater than the SO2 market</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>In addition to being President and CEO of CONSOL Energy I want to tell you a little bit about Mr Harvey</t>
+          <t>My personal opinion based on what happened about that history as well as what happened with privatized spent fuel storage was that you could have a willing host community</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>They are going to have to figure out what problems that will cause with the disconnect with our present Georgia gasoline</t>
+          <t>I have served on the Budget Committee the past few terms as a representative of the Democrats on the Energy and Commerce Committee and we have seen those budgets</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,37 +948,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>It took over a year in production and it analyzed all of the various means open to us in terms of investing in energy efficiency technologies</t>
+          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>But in fact I think it has worked out very well in the electric sector in the sense that we have utilities all other extensions above power systems or at least meeting minimum standards and we saw a good example with Texas this past winter</t>
+          <t>The savings from the CAFE proposal like I mentioned is more than three times proven reserves of oil in the United States</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>And does that make other forms of energy work better or does it replace them</t>
+          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
+          <t>I am here to speak a bit about the Regional Greenhouse Gas Initiative that nine and soon 10 States in the Northeast have embraced to deal with greenhouse gas emissions from the electricity generation sector in our State</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
+          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,57 +998,57 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Public power systems throughout the United States have seen direct economic benefits from deploying broadband networks</t>
+          <t>Secretary Hogan in 2007 Congress passed the Energy Independence and Security Act</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
+          <t>The threat assessment also notes The greatest opportunities to limit the damage of covert NBC nuclear biological or chemical attacks or prevent them entirely exist during the first phases of the incident</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>I think its one of the parts of this whole conversation thats a bit disturbing in that to whatever degree the price of fuel is higher because of speculation its a limiting factor on us raising our taxes that we need to raise so that we can invest in infrastructure and offer some longterm solutions for our citizens</t>
+          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
+          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Second EPA is about to begin an emissions trading program for nitrogen oxide in the northeast and midwest which will also bring about significant reductions beginning in 2003</t>
+          <t>Well I am just in the research and analysis business but I would thinkand my friends in the industry can speak perhaps better but I think the biggest concern or two really one would be that the government is going to stand in the way of infrastructure projects that are needed to get investment in domestic oil and gas production and the second would be uncertainty about regulation of hydraulic fracturing going forward</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+          <t>And three accelerate the deployment of clean energy infrastructure</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,17 +1058,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dr Scheppach my Governor and Governor deJongh of the US Virgin Islands is an active member of NGA and has signed on to the policy statements on health care reform energy and many of the other ones</t>
+          <t>New teams will come with expertise something like auditors with expertise in energy trading something like that and if they wont perform theyll be thrown out</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
+          <t>And what we need to do is focus on how can we most efficiently reduce consumption and help reduce those overall energy costs</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,27 +1078,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>We support requiring all lightduty vehicles starting in 2023 to be designed specifically to run on this fuel on at least a 95 octane rating and potentially higher</t>
+          <t>For example todays efficiency standards for medium and heavyduty trucks are reducing emissions from those vehicles</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>We know that Chinas use of coal and the world has grown from 20 percent to about 30 percent now and it is expected to get to use 40 percent of the worlds coal in the next 15 years or so we know that Chinas emissions have grown by 80 percent since 1990 and they are expected to grow another 65 percent by the year 2020</t>
+          <t>We talked about earlier and some of my colleagues talked about the carbon sequestration and how it is notthe technology is not there at this point in time</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+          <t>The collateral effects from incomplete or poorly thought out policy changes could have a negative effect on all electricity users and certainly in regions of the country where there are no problems occurring</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,57 +1108,57 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
+          <t>The proposal would require all generators public utilities and power marketers to file electronically with the Commission and post on the Internet an index of customers with a summary of the contractual terms and conditions for marketbased power sales costbased power sales and transmission service</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
+          <t>Above all the rhetoric and the different reasons why many of us oppose the Yucca Mountain project this committee and this Congress must ask itself whether the Nuclear Waste Policy Act has been followed as Congress intended</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Department of Energy and the National Nuclear Security Administration are fully committed to the homeland security mission and the successful establishment of the Department of Homeland Security</t>
+          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+          <t>Certainly methane capture from landfills is fairly easy to measure</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>We have done that in a way that doesnt single out any fuel supply</t>
+          <t>Consumers determine energy consumption every day through their purchasing decisions and the use of the products they buy</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>We recognize that the discussion draft instructs FDA to assess the costs benefits and feasibility of traceability technologies and gives FDA the power to exempt certain foods</t>
+          <t>But in fact I think it has worked out very well in the electric sector in the sense that we have utilities all other extensions above power systems or at least meeting minimum standards and we saw a good example with Texas this past winter</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>My own research has focused on understanding and quantifying the effects of reductions in mercury emissions</t>
+          <t>While the nodrive program did not produce the desired results the cleaner burning gasoline did</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,17 +1178,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>I am president and CEO of Southwest Power Pool an organization for which I have worked 32 years</t>
+          <t>So this war on coal must stop</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+          <t>Electrifying millions of American buildings will require sensors smart grid solar batteries carbon capture and storage the Internet of Things cloud computing mobile computing edge computing</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,57 +1198,57 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>This further diminishes their bargaining power because it is now an emergency</t>
+          <t>In addition the NRC explained to our committee staff that the operator was able to avert core damage in the full power loss scenario by activating a steampowered reactor cooling system also known as the RCIC but some NRC analysts have questioned the ability of this system to function when battery power is lost</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+          <t>Significant pillars of our program are deployment of nonCOINF2INF sources of generation like renewables and nuclear reduced COINF2INF emissions through efficiency and the COINF2INF capture from fossil fuels</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>So in a tangible way the natural gas prices do affect our operations because of the energy costs</t>
+          <t>Notably the agencies appearing today along with many others signed an MOU in April seeking to establish a cooperative relationship and expedite authorizations of major infrastructure projects including hydropower facilities</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+          <t>Shutin gas production in the Gulf was 58 billion cubic feet per day or 58 of daily gas production in the Gulf</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>That is going to put pressure on conservation</t>
+          <t>Through research and demonstration of hydrogen generation and storage technology we will be able to gain the necessary safety knowledge which will lead to data driven codes and standards that do not currently exist</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
+          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>The programs were talking about today like the section 1603 tax grant the Department of Energy weatherization program and the DOE loan program have improved the lives of citizens around this country creating jobs heating homes and providing resources to this Nations energy innovators</t>
+          <t>Can you elaborate why this makes such a difference for your members in providing greater certainty to prospective purchasers for redevelopment of petroleum contaminated brownfield sites that are cleaned up under a State program</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NIH isthe thing the NIH does the best is research and they have spent a lot of time and energy in not only developing new vaccines</t>
+          <t>A customer with a basic meter gets no informational feedback on how and when they are using electricity or information they can apply to their future electricity purchases</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,27 +1278,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The Clean Power Plan I think makes a lot of sense moving forward</t>
+          <t>The commissions inability to come together on a unified response during the height of the Western energy crisis in 2000 caused consumers to pay significantly more for electricity and natural gas than they should have</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Since 2007 California regulators have permitted the use of public safety power shutoffs by electric utilities to prevent the ignition of wildfires during highwind events</t>
+          <t>I think its increasingly obvious that the word green here in this case really only means low carbon</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Second with regard to clean coal as you know we dont support subsidies for coal</t>
+          <t>I mean that is why we want gasoline or diesel or biofuels or something</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>I think that is an incredibly positive development and in fact the predictions of all the oil growth that Raymond James and Citigroup have made all assume that those new rules are going to be implemented yet we are going to have this explosion in oil production yet with the production of which offshore is going to be much safer for the workers and for the environment</t>
+          <t>But as we look at the list of states with a high percentage of carbonbased fuels we look at Massachusetts at 90 better than 90 percent Michigan 86 percent Texas at 95 percent even Wyoming at 97 percent</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,27 +1318,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>While each regional electric system has its own unique characteristics in general coal and nuclear plants have long supplied base load power while natural gasfired units have been used as the predominant source of loadfollowing and peaking capacity</t>
+          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+          <t>I am concerned that you all dont get noticed under the Clean Power Plan for interaction about what is going to happen when the plants close down</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
+          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,17 +1348,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>I am a big trash energy guy</t>
+          <t>We strongly support the need for a comprehensive energy policy that focuses on adequate supply sources to aid strategic industries such as ours</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+          <t>However the point of both the Minorities in Energy Initiative as well as my workforce bill is that it really shouldnt matter who is in the White House that the agency DOE has the affirmative responsibility to work on increasing opportunities for all</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
+          <t>That said once again our effort has been focused on deployment and although you might note that in FY 12 we dont request any direct funds for RD in natural gas we continually support natural gas vehicles through the Clean Cities Program our deployment arm and we will continue to do so both vehicles and infrastructure</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,17 +1378,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+          <t>6 Were there violations of the existing reliability rules for the realtime operation of the interconnected power systems</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
+          <t>Estimated potential energy savings expected to result when this program is fully implemented are in the 35 range</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,17 +1398,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>We are partnering with Columbus Power on many many ranges for smart grid and we are also looking at just the charging infrastructure in general</t>
+          <t>Just 10 years ago most ethanol plants capacity was 10 to 15 million gallons per year</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>They have plenty of power already and influence as they demonstrated by instructing the Republican caucus to go pass this tax bill</t>
+          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,27 +1418,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
+          <t>I think the increased production has been very good for our economy but my concern is that the technology that we need to keep production cleanby clean I mean carbon greenhouse gas emissions from production greenhouse gas emissions in transportationthat they are not there to keep up with the demand that would increase if we lifted the export ban</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+          <t>So maybe someday we have this hole underground it can be used for longterm nuclear storage</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+          <t>Because they will now have the controlling interest in that oil field so they can do what</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>When that merging occurs will we on the Energy and Commerce Committee be made aware of what that structure looks like and how the fund then subsequently is to be administered</t>
+          <t>Resource agencies responsible for the health of fisheries have only one chance every 30 to 50 years to affect how private hydropower projects are operated</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>We have also engaged the Department of Interior the Department of Energy the National Laboratories and the Department of Defense in discussions related to security</t>
+          <t>Sincerely Richard A Abdoo Chairman of the Board President and Chief Executive OfficerAttachment Electric Generation Tax IncentivesSeven Year Cost Recovery With regard to depreciation the recovery periods permitted under current law for assets used to produce and distribute electricity are much longer than the recovery periods allowed for other capital intensive industries</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dana Berliners Public Power Private Gain is full of similar tales and Professor Jonathan Turley recently summarized more examples of takings that have been upheld by courts as legitimate public uses</t>
+          <t>OK Andso just why is it important to examine that bulk power system reliability through the lens of recent extreme weather events and not just the Texas power failure</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1478,47 +1478,47 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sincerely Richard A Abdoo Chairman of the Board President and Chief Executive OfficerAttachment Electric Generation Tax IncentivesSeven Year Cost Recovery With regard to depreciation the recovery periods permitted under current law for assets used to produce and distribute electricity are much longer than the recovery periods allowed for other capital intensive industries</t>
+          <t>The United States has such incredible energy abundance</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+          <t>Offering alternatives that must be included by the Secretary is an unnecessary infringement on the agencys authority and expertise but granting this preferential treatment to hydropower interests is patently unjust unfair and inconsistent with every other element of the Federal Power Act</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Good morning Chairman Upton Ranking Member Rush and all members of the Energy Subcommittee</t>
+          <t>For example should we use natural gas directly for transport or convert it to hydrogen first</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+          <t>Today we will hear from the Federal Energy Regulatory Commission which is the coordinating agency for these reviews</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Everyone in Washington is interested in renewables</t>
+          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,17 +1528,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A customer with a basic meter gets no informational feedback on how and when they are using electricity or information they can apply to their future electricity purchases</t>
+          <t>The result has been policies that deter and forestall increased usage of natural gas which is after all the nations most environmentally benign and costeffective energy source</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Is it an equivalent of a 1400megawatt power station that could have been available</t>
+          <t>I am determined to work with my colleagues to do everything in our power to preserve this important State right</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
+          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+          <t>Last fall we published a report Biofuels Issues and Trendsit is attached to my testimonyto provide an overview of the dynamics of production consumption trade in ethanol biodiesel and cellulosic fuels</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Energy Star is an example of something like that</t>
+          <t>If you were to attempt to build a scrubber and I do know what scrubbers cost because I have put them on coalfired power plants and I have put them on big plants and I know that they dont go on little plants because the plants I used to take care of in many cases are now retired because they cant afford to put it and they are considerably larger than these plants</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>The Nuclear Waste Policy Act of 1982 made the transportation and longterm storage of nuclear waste the responsibility of the Secretary of Energy</t>
+          <t>OK And I also understand that there is a market issue in terms of how the New England plants buy their gas</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+          <t>As members of this committee are well aware FERC has been without a quorum since February which has prevented action on crucial energy infrastructure projects</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,21 +1598,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Back in 2017 the FCC teed up the 24 gigahertz band in particular the appropriate protection limits in terms of the power emissions and the like for devices that would be using these bands for purposes of 5G</t>
+          <t>They are the ones who bear the brunt of higher energy prices and supply disruptions</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>As Chairman Shimkus stated the 21st Century Transportation Fuel Act Discussion Draft takes a larger view of Federal transportation fuel policies</t>
+          <t>And Section 401a1 of the Clean Water Act precludes the Commission from licensing a hydroelectric project unless the project has first obtained state water quality certification or a waiver thereof</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>We found in this testing that the bag house at Gaston is not big enough to accommodate the amount of activated carbon needed to consistently achieve 90 mercury control for even just one week of testing</t>
+          <t>Shell was one of the first integrated oil companies to acknowledge the impacts of human activity on the climate and we believe now is the time to act</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,27 +1638,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Thank you for holding todays hearing to provide us with a market participant perspective on our system of electricity regulation</t>
+          <t>But certainly it is important right now during this time of needed supply with questionable reliability to have any and all energy</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+          <t>So yes I mean I would agree as my testimony alluded to that projects like that in California and other States around the country are being driven in large part by State renewable electricity standards which have been beneficial in not only deploying the technologies but driving down the cost</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
+          <t>Every piece of equipment that a retailer uses to dispense fuel has to be listed as compatible with that fuel and up until about 10 years ago there were no dispensers listed for above E10</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>I want to thank all the witnesses for being here and look forward to hearing your testimony as this committee evaluates the state of our wholesale electricity markets and I yield back</t>
+          <t>coal consumption Coal consumption is dominated by electric utilities which consume nearly 90 of all coal production</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Also given the responsibility that has been given to the NERC to ensure the reliability of the bulk power system in North America would NERC consider it sufficient to look at the impact of regulations one by one instead of in a cumulative analysis</t>
+          <t>We need metals for our legacy energy businesses our carbonbased businesses oil gas coal whatever</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,57 +1688,57 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
+          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
+          <t>We have seen cases in Pavilion Wyoming and in Dimock Pennsylvania where the EPA has also accused oil and gas operators of groundwater contamination from fracking without sufficient evidence to justify those accusations</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Certainly methane capture from landfills is fairly easy to measure</t>
+          <t>bullet Efficiency Government policies should encourage the efficient use of energy by insuring a level playing field for competing sources of energy</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Could you describe the goals of your partnership and also what you hope to learn through these field tests and can you give us a sense of when you think carbon sequestration technology could be sufficiently reliable for deployment and for something we can actually begin to rely upon as we structure legislation that in fact might require the capture and sequestration of carbon</t>
+          <t>That invisible oil slick is now causing the oceans to become acidic</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
+          <t>We had great debate over whether this administration the Obama administration is hostile to energy production on land offshore and on Federal lands etc and the argument that that is the case is not supported by the facts</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+          <t>Secretary Moniz I want to talk to you specifically about access and equity in the energy transition</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>And one of the big dilemmas that we face and it is being argued here I think largely around this question of decoupling is what is the dislocation that occurs when you go from one energy policy to a new one</t>
+          <t>I am president and CEO of Southwest Power Pool an organization for which I have worked 32 years</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
+          <t>So 2 years and you dont have the records from 2007 and yet you continue to say you dont need subpoena power</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,17 +1778,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>So for instance one of my companies Sun Drop Fuels has adopted a different model so they went to Chesapeake a natural gas company because they are going to use natural gas as part of the feedstock in their plant</t>
+          <t>As an example generally the typical electric cooperative in the United States has 7 customers per mile 7</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+          <t>So we could take compliance I think from their current permit applications or new permit applications from generating stations and take that data put it into a database and ultimately from that use it to determine a greenhouse gas performance standard for particular plants that were into the interconnect</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
+          <t>That fuel switching transferred many jobs out of Appalachia to the western part of the United States</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Yes we share a commitment with Canada to work towards energy security</t>
+          <t>These plants have proven to be highly reliable in all weather conditions costeffective in operation and act as crucial anchors to the national electric grid</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,27 +1828,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NIHtaxpayers paid for it and then smart Wall Street folks bought it and with the benefit of the patent they used that pricing power to overreach</t>
+          <t>I will make a comment from the perspective of energy efficiency</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>The Federal Power Act requires FERC to balance those competing interests in issuing a license because no one use of a river for power drinking water irrigation recreation or other use should automatically take precedence</t>
+          <t>In fact a new EIA Commission Study concludes that oil refiners would have quote no problem quote meeting a requirement to produce 95 RON gasoline beginning in 2022 and assumes that refiners would meet that standard with E10 gasoline</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>We need metals for our legacy energy businesses our carbonbased businesses oil gas coal whatever</t>
+          <t>From telecommunications to fuel economy standards I have always found that starting with the goal of saving families money through technological innovation is the best vehicle for effective public policy</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,47 +1858,47 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
+          <t>As I said previously while our attention to electricity issues has been sporadic since the passage of the Energy Policy Act of 2005 there was a time when it seemed like this committee held hearings on the electric sector almost weekly</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Approximately 10 years ago Beaver County started to see the effects of the technological advancements that made developing the Marcellus Shale possible</t>
+          <t>The Chairman of the Council on Environmental Quality chairs the Interagency Task Force whose membership includes representatives from the Departments of Agriculture Commerce Defense Energy the Interior and Transportation the Environmental Protection Agency the Federal Regulatory Commission and the Advisory Council on Historic Preservation</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The commission has a stake in the national energy policy and has identified areas where new legislation would be helpful</t>
+          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>It is complete power</t>
+          <t>Its trading 30 percent of the West Texas Intermediate benchmark crude oil contract on United States terminals located in the United States and denominated in United States dollars</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
+          <t>I reckon 1969 but we were without power and we are about 120 miles from the coast and we were without power about 20 days 19 20 days and at that time some of the water systems had started putting in generators very few but some had and you know welike I said in the testimony you can make it without power for a while rig up your generator to get the TV on or something but without water you cant make it and we immediately called our circuit riders</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The United States has such incredible energy abundance</t>
+          <t>We have separately established methodology for coal ash users to analyze their products and we have in fact applied that methodology to demonstrate that in concrete and wallboardthat we have confirmed its continued use</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,27 +1918,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Under this scenario a state could never achieve attainment status with its own efforts rather the ability of states to reach attainment would depend on the willingness not only of other states but also of nations around the globe to reduce their greenhouse gas emissions</t>
+          <t>Up to 4000 megawatts of capacity nationwide would be eligible</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>What type of an impact would meeting the goals of the Renewable Fuel Standard have on jobs here in America</t>
+          <t>If we really do something about climate change by reducing COINF2INF emissions and reduced demand for oil can that help us restrain the price increases of oil</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>So can you explain to why you thinkyou know I realize you decrease emissions but I just am not convinced that that particularly will change much the overall lifecycle of carbon emissions with the batterythe development of the batteries and what it costs to do that when you plug it in how the power is generated</t>
+          <t>But the good news here is that the shortterm energy markets appeared to adjust rather quickly to the collapse of the largest energy trading company in the world</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>If the best and the brightest of our young people continue to see that the oil and gas business is a losing proposition we wont get that 32 trillion</t>
+          <t>Well let me just ask you this then are you basing determinations on LNG exports in part on those discussions with the G7 nations</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,27 +1958,27 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A mere requestsomehow provide some assistance so they could be an existing power plant and have beenhave been rebuffed</t>
+          <t>There are tremendous opportunities for further job growth in the clean energy sector but to harness that potential we need to continue to evaluate and recalibrate Federal policies</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
+          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>In addition we recently received an early site permit from the Nuclear Regulatory Commission which certifies that our site in Clinton Illinois where we operate one nuclear reactor meets all necessary criteria for construction of a new nuclear unit</t>
+          <t>The electric mix ofin electricity generation today as I understand it is coal 45 percent nuclear 20 natural gas 23 hydro seven and renewable 36</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,17 +1988,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>In summary we believe tomorrows automobiles must be flexible enough to accommodate many different energy sources</t>
+          <t>Likewise when insurance companies are able to pull their market power to negotiate lower rates there can be positive results</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
+          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,17 +2008,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The first provided an overview of the future of fuels and vehicles</t>
+          <t>These criteria include balancing reasonable cost burdens encouraging lowcarbon technologies providing a uniform national policy and finding the most costeffective ways to reduce emissions without choosing winners and losers</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+          <t>Each day more exploration and development activity in the Gulf is lost</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,17 +2028,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+          <t>For natural gas the market is strong and active</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Although more than half the increase in natural gas consumption between 2000 to 2020 is expected in the East the Westincluding Canadian imports and most of the Gulf Offshoreis expected to provide approximately 80 percent of the incremental lower 48 natural gas supply in the reference case</t>
+          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,17 +2048,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>If not I would ask unanimous consent that wewhen we reconvene at 1030 that opening statementsthe only opening statements we will have will come from the chairman the ranking member of the full committee the chairman and the ranking member of the Energy and Environment Subcommittee</t>
+          <t>You would be a real hero if you could get us the energy bill</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Chairman Shimkus I would like to point out one in particular the suspension of the Nuclear Waste Fund which we argued we needed to do</t>
+          <t>The technology allows older coal plants to be retrofitted to burn cleaner eliminating the hassle of permitting a new power plant</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
+          <t>US dependence on imported oil has fallen since the RFS was enacted from 60 percent in 2005 to 40 percent today</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,17 +2078,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>We can all agree that we do need some oil and gas development</t>
+          <t>Seeing the issues that we have had with our voluntary domestic carbon market I can only imagine how these issues will be compounded when the value of potential offsets increases and we are relying on verifying offsets in the developing world</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>I hope in my discussions with you today that that commitment on my part will come through to you in talking a little bit about what I plan to do and how I plan to bring my experience and my expertise that I have gained in the private sector in the nuclear industry over the years into this project to move it forward smartly in the time that I am in this job and that is my commitment to you</t>
+          <t>OTHER ISSUES Many other issues are under consideration with respect to a fuels title in an 2003 energy bill</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+          <t>Towns which adds some common sense to a currently onerous relicensing process for nonfor Federal hydro projects</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>This should not be styled to effectively mandate ethanol use however</t>
+          <t>In the first hearing this subcommittee had this Congress my constituent the manager of a local rural electric cooperativethat is a notforprofit entity for those who are in the businessand a former environmental officer at the Illinois Environmental Protection Agency testified that doing so would increase utility rates for again a notforprofit electricity company by 25 percent</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,17 +2118,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+          <t>Through the Recovery Act we are making hundred million dollar grants in grant funds available to help the transit industry to improve fuel efficiency and reduce emissions for bus rail cars and other transit equipment</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>In addition TIGR has also sequenced a wide range of important environmental microbessome of which live in extreme environments but may be critically important to the health of the planetand that carry out a variety of interesting metabolic reactions including degradation of cellulose and other organic matter precipitation of heavy metals such as uranium from solution and production of methane and hydrogen as potential new sources of fuel</t>
+          <t>Last year nationwide production and transportation of gas added 62 billion to Federal and State government revenues and it could elevate to 111 billion by 2020</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
+          <t>Now let me share some of our observations about the futures markets specifically for heating oil and natural gas</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,17 +2148,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+          <t>Encouraging the broadest range of fuel technologies is critical to the type of transformational change necessary to improve our Nations energy security</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FERC grid operators State public utility commissions and power plants even progressive power companies are already planning for the changes that are under way</t>
+          <t>1 To ensure a common basis for comparison the capital costs of electric generating technologies are expressed in dollars per kilowatt of capacity</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>But I think when I go back and reflect on the hearings as many witnesses have stated the Federal Power Act and the competitive market model have served the nation well and would urge everybody to keep that in mind as we debate some of these other issues</t>
+          <t>These individuals in turn will become the qualified skilled workforce that the energy and manufacturing industries need</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,17 +2178,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+          <t>At the same time Keystone will increase our Nations longterm security by accessing oil from our friendly neighbors to the north from Canada</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Is it fair to say that Order 1000 provides a structure for other regions of the country to likewise identify and build transmission infrastructure that is needed to bring new renewable resources online</t>
+          <t>Diesel trucks are paying 450 a gallon for diesel</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,17 +2198,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>When I looked into the composition of the drilling muds and drilling fluids I hit the same kind of data gaps that Dr Reddy described</t>
+          <t>But for the sake of our consumers our utility businesses and Americas entrepreneurs and innovators we as a Nation could take a better course of action and enact a national energy policy to begin the transition to a lowcarbon economy</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>No market participant in interstate wholesale electric markets should be immune from FERCs investigative and remedial authority</t>
+          <t>I am privileged to chair the Subcommittee on Commerce Trade and Consumer Protection and my friend and colleague Mr Boucher who is the chairman of the Communications Technology and Internet Subcommittee of the Committee on Energy and Commerce</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+          <t>Of course we are always concerned about keeping gasoline as affordable as possible and some critics of oil exports have raised fears of price spikes</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,37 +2228,37 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>If we go out to the market to buy power from a new power plant it is at least 9 cents</t>
+          <t>We encourage Congress to learn from States like New Mexico when implementing programs to reduce greenhouse gas emissions</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+          <t>With respect to investments on the transmission system and the priorities really goes after increasing the capacity of the existing system with great enhancing technologies such as dynamic line rating energy storage technologies reconductoring of our transmission system</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Additional material submitted for the record follows Knoxville Utilities Board and Memphis Light Gas Water DiVision INTRODUCTION AND SUMMARY Memphis Light Gas and Water Memphis and Knoxville Utilities Board Knoxville submit this statement for the record of the Committees hearings on electric industry restructuring issues to set forth their views on the need for legislation related to the Tennessee Valley Authority TVA</t>
+          <t>Although I recognize the role that nuclear power plays in our Nations longterm energy strategy and the need to properly store expired nuclear fuel I remain strongly opposed to any effort to reinstate Yucca Mountain</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>We must develop a coordinated approach to environmental and energy regulation and we must keep options open for all fuel sources especially coal the dark mineral that offers a light for our energy future</t>
+          <t>The method can accept a variety of feedstocks including natural gas coal and biomass</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>As a general matter it is obvious and beyond reasoned argument that a Director of a federal agency has the official capacity and authority to exercise governmental power or influence which could have a favorable or unfavorable impact on the interests of a grantee of that agency particularly an entity with a continuous grantee and certification relationship with that federal agency</t>
+          <t>Our objectives area to exercise and perform the powers and duties assigned to the IMO under this Act the market rules and its licenceb enter into agreements with transmitters giving the IMO authority to direct the operations of their transmission systemsc direct the operations and maintain the reliability of the IMO controlled gridd establish and operate the IMOadministered marketse collect and provide to the public information relating to the current and future electricity needs of Ontario and the capacity of the integrated power system to meet those needsf participate in the development by any standards authority of standards and criteria relating to the reliability of transmissions systems andg work with responsible authorities outside Ontario to coordinate the IMOs activities with their activities</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2288,17 +2288,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+          <t>I also urge that any proposal considered by this committee have the best interests of electricity consumers in mind including the promotion of conservation and renewable and innovative energy sources</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Ed Whitfield This mornings hearing focuses on EPAs proposed Clean Power Plan which would impose federal limits on carbon dioxide emissions from each states electricity system</t>
+          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
+          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2318,17 +2318,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+          <t>Four US States Minnesota Montana Idaho and North Dakota account for 75 percent of all the natural gas brought into the United States via pipeline</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
+          <t>NIHtaxpayers paid for it and then smart Wall Street folks bought it and with the benefit of the patent they used that pricing power to overreach</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,17 +2338,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Central to energy access is lighting for example</t>
+          <t>It is with growing incredulity that the rest of the industrialized world views the effectiveness of energy industry disinformation campaigns with the American public</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>You heard about the domestic manufacturing of wind turbine components that has also increased dramatically over the last 5 years as the renewable standards have ramped up</t>
+          <t>And if I can share more expertise that we have in Texas and the south related to wildfire hazardous fuel reduction and prescribed burning</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,17 +2358,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+          <t>He has added substantially to the states ability to deal with our current energy situation</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>I look forward to todays hearing to examine the challenges and opportunities to modernize our electric grid</t>
+          <t>Hes accompanied by Pat Hoffman Principal Deputy Assistant Secretary in the Office of Electricity who can provide technical perspective from her experience addressing cybersecurity and energy emergency functions</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+          <t>If we want the industry to be capturing carbon in 2020 shouldnt we be telling them about that now in order to create the market signal</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,17 +2388,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>As you indicated my name is David Duquette and I chair the US Nuclear Waste Technical Review Board Executive Committee</t>
+          <t>In eastern Washington hydro plays a foundational role whether it is conventional small conduit hydro</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+          <t>These two projects represent the future of coal</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
+          <t>This need not be limited to natural gas or other energy products</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+          <t>Chairman Meserve I have got a series of questions about the transportation of nuclear waste</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,17 +2438,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
+          <t>Most of the gas we will find onshore in the future will be unconventional gas that is highercost and lowermargin</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Such macroeconomic conditions generally present from the 1930s to the 1980s maintained low electricity rates and reliable service for end customers while strong predictable returns for investors</t>
+          <t>Most of all I am very concerned what this proposed rule would do to electricity costs for consumers and for jobcreating businesses</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
+          <t>For these technologies air pollutant emissions will be associated only with the transport of the hydrogen to the point of use</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>We have the chance to turn a major liability into a valuable commodity through which the department can generate new revenue to help expand their mission as we move towards energy independence and combating global warming</t>
+          <t>The prepared statement of Jerry Jordan follows Jerry Jordan on Behalf of the Independent Petroleum Association of America and the National Stripper Well Association 1 1 Colorado Oil Gas Association East Texas Producers Royalty Owners Association Eastern Kansas Oil Gas Association Florida Independent Petroleum Association Illinois Oil Gas Association Independent Oil Gas Association of New York Independent Oil Gas Association of Pennsylvania Independent Oil Gas Association of West Virginia Independent Oil Producers Association TriState Independent Petroleum Association of Mountain States Independent Petroleum Association of New Mexico Indiana Oil Gas Association Kansas Independent Oil Gas Association Kentucky Oil Gas Association Louisiana Independent Oil Gas Association Michigan Oil Gas Association Mississippi Independent Producers Royalty Association Montana Oil Gas Association National Association of Royalty Owners Nebraska Independent Oil Gas Association New Mexico Oil Gas Association New York State Oil Producers Association Ohio Oil Gas Association Oklahoma Independent Petroleum Association Panhandle Producers Royalty Owners Association Pennsylvania Oil Gas Association Permian Basin Petroleum Association Tennessee Oil Gas Association Texas Alliance of Energy Producers Texas Independent Producers and Royalty Owners and Wyoming Independent Producers Association</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Given the potential impacts of EPAs proposed rules on the bulk power system such coordination is critical to ensuring that EPA does not enforce its rules in a vacuum</t>
+          <t>And then let me ask you when you talked about health and safety of the American folks in looking at the endangerment ruling I am wondering if you all looked at the fact because you mentioned something about the heat being higher causing folks to have strokes or heart attacks etc and I am wondering if you looked at the fact that with the electric rates going up the heating bills going up fuel oil going up that there are a lot of folks in my district who are having a hard time paying for their heat and what is the offset on the other side</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,17 +2488,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+          <t>Our work on energy issues has described some of the consequences of hurricanes on petroleum marketssuch as rapid gasoline price increases</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3 would additionally allow substitutions of Transportation Control Measures in a SIP without revisiting the SIP approval process or making a new conformity determination provided that the new measures achieve an equal or greater emissions reduction</t>
+          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,67 +2508,67 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>I would want the knowledge and education that allowed me to navigate the system and make my own appropriate decisions for myself and my children and I would want the power to determine my own fate and the power to change the situation</t>
+          <t>The Commission recently met with state regulators from regions that will be most affected by high natural gas prices to discuss best practices in state conservation and hedging programs</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+          <t>Collectively NACS and SIGMA members sell more than 75 percent of the gasoline and diesel fuel purchased by American consumers each year</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+          <t>This requires vacation of camera regulations of both new and existing EGUs electric generation units</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+          <t>That would be a market where large users of electricity can bid in to the market discontinuing using a certain amount of their load and get paid for it and make an economic decision as to whether they want to do that or not</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+          <t>But we are also concerned that this power grab will do irreparable harm to the FCC as an institution and to the role of Congress as elected representatives of the people to determine the law of the land</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+          <t>I am drafting legislation to examine the nexus between DOEs nuclear research programs and the NRCs licensing capabilities and earlier this week my office sent over the discussion draft</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>I think we need to increase conservation and weatherization</t>
+          <t>We have done that in a way that doesnt single out any fuel supply</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,17 +2578,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+          <t>Dana Berliners Public Power Private Gain is full of similar tales and Professor Jonathan Turley recently summarized more examples of takings that have been upheld by courts as legitimate public uses</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Reducing emissions of carbon dioxide and other greenhouse gases is the right move to make but we should focus on that goal and not lose perspective</t>
+          <t>I am pleased to report that last week the House overwhelmingly passed the Nuclear Waste Policy Amendments Act of 2018</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,37 +2598,37 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+          <t>Has the RFS reduced the need for foreign oil</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+          <t>That is the entirety of all of our liabilities that include all of our nuclear ships and the eventual cleanup for those and a variety of other items</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>These include modernizing the electric grid by using proven technologies to better contain outages reduce recovery times and lower operating costs</t>
+          <t>We have been asking for a number of years for the Department of Energy to do the necessary investigations to start making those kinds of determinations and we dont yet have that information in place</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>So here is this switch that when it is in one position for an emissions test it made a change in how this was operational so the emissions would be lower</t>
+          <t>Two years later in 2015 the integrated systems and part of the Western Area Power Administration in the upper Midwest joined SPP marking the first time a Federal power marketing administration chose to join the market</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,17 +2638,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2997 also eliminates the emissions reporting requirement for releases associated with manure under CERCLA Section 103 and Section 304 of EPCRA</t>
+          <t>Mr Roberts you mentioned the United Mine Workers in Appalachia and Illinois and I want you to know that there are a lot of them in my district in Western Kentucky and we are excited about Peabody Coal Company being ready to open up a new mine and also entered with a consortium on a power plant also that will use some local coal</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>But on the other hand those that want to have exploration we think that the country and the committee should stand behind those States if the prospects are indeed there</t>
+          <t>But it is now 2015 and global and domestic oil markets have changed significantly we would all recognize that and SPRO needs to be modernized</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+          <t>Rush and others in terms of how do we organize the Department of Energy for the next generation</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
+          <t>And you will catch some really good fish and some of the best eating you are going to find right there next to the oil rig</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,27 +2678,27 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>I joined the Department of Energy back in 1978 and I joined the program in 1985</t>
+          <t>I want to ask you Mr Chairman and each of the Commissioners can you for the record as short of a guarantee state that the NRC is doing its absolute best to eliminate any and all known threats to nuclear safety in this Nation</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+          <t>You can obviously absorb excess spikes in natural gas prices for a while and indeed many have done that over the last number of years</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+          <t>Our agreement builds on XTOs nearly quarter century of success in developing affordable reliable cleanerburning US unconventional natural gas supplies for use by Americans</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,17 +2708,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+          <t>NIH isthe thing the NIH does the best is research and they have spent a lot of time and energy in not only developing new vaccines</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
+          <t>Some Republican Members cannot seem to decide whether they like cheap natural gas or see it as a threat that must be overcome to protect the coal industry</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,37 +2728,37 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>By way of background the Electricity Consumers Resource Council ELCON and the Electric Power Supply Association EPSA were part of the process that developed and endorsed the original consensus reliability language roughly seven years ago</t>
+          <t>Under the Clear Skies Initiative all Americans will benefit from cleaner air as emissions of the major pollutants from power generation SOINF2INF NOINFXINF and mercury are reduced by roughly 70 percent</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>But just kind of bottom line we know that for every fullservice hotel like a Marriott we send millions of dollars of buying power back into local communities through the salaries and supply chain</t>
+          <t>And there have been a few sites like in Monroe Michigan where there is actually an assembly plant for wind energy</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+          <t>I hope this doesnt echo across the Administration and the great folks of the Department of Energy and the Congress</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>As a person who has actually developed interregional transmission projects I have taken the opportunity to write an article that is part of my prepared testimony that was just published in The Electricity Journal called Triple Jeopardy</t>
+          <t>Electric cooperatives comprise a unique component of the industry</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
+          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,27 +2778,27 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
+          <t>We may even get some pleasant surprises such as we recently experienced with the shale gas revolution</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+          <t>The bill would short circuit the established review process for pending and future LNG export applications</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+          <t>The Presidents proposal removes this requirement allowing plants with no pollution controls at all to keep on polluting</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,27 +2808,27 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>I will simply say in closing Mr Chairman that one instance of which I am particularly aware the Department of Defense has worked closely with a company in Orange County California which I represent Liquid Metal Technologies to develop an alternative weapon an alternative to depleted uranium emissions that have proven toxic if not severely toxic</t>
+          <t>My testimony today will provide a brief overview of the hydropower licensing program and some of the challenges it faces</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>STATEMENT OF SUZANNE RUDZINSKI DIRECTOR OFFICE OF RESOURCE CONSERVATION AND RECOVERY OFFICE OF SOLID WASTE AND EMERGENCY RESPONSE ENVIRONMENTAL PROTECTION AGENCY Ms Rudzinski</t>
+          <t>The job creators the haulers the steel mills have all lost the ability to create jobs because of a policy that was designed and I will just end on this a policy that was designed to protect us against state oil interests</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+          <t>There have been provisions I have disagreed with and think we should revisit like on biomass from forests not counting toward renewable fuel standards seems to be rather absurd</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>One industry study estimates that there will be 600000 career opportunities for women and minorities in energy in the years ahead</t>
+          <t>Nuclear science and technologies take advantage of radiation and nuclear properties of the atom to perform many useful activities such as improving food safety protecting our homeland and providing for precise industrial production</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,17 +2848,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TESTIMONY OF THOMAS N PYKE JR CHIEF INFORMATION OFFICER US DEPARTMENT OF ENERGY Mr Pyke</t>
+          <t>Well that was under the greenhouse gas requirement but did anyone at EPA consult with the Office of Management and Budget or the White House before moving forward with taking over the flexible permitting program under the Clean Air Act</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>The consensus decision making rule Prior witnesses at these hearings have suggested that the consensus requirement of the 661 Committee made it difficult to establish effective oversight of the Oil for Food program</t>
+          <t>We do need to streamline the regulatory process for liquefied LNG exports</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>I thank you and the Chair of the full committee for your leadership on the American Clean Energy and Security Act</t>
+          <t>By way of background the Electricity Consumers Resource Council ELCON and the Electric Power Supply Association EPSA were part of the process that developed and endorsed the original consensus reliability language roughly seven years ago</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,17 +2878,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Mr Caruso your testimony focuses on the supply side of natural gas</t>
+          <t>This continuing improvement has been the result of more efficient engines emission control technologies and cleaner burning fuel</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+          <t>The gasoline sulfur standard is a national annual average standard set at 30 parts per million a 90 percent reduction over current national levels</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+          <t>I know of nobody that could not get natural gas if they were willing to pay the price unless it was a pipeline constraint</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+          <t>They must strike a demanding balance between first cost cost of operation and technical features to minimize energy consumption</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+          <t>Were very pleased to be here to discuss the final report of the Commission to Review the Effectiveness of the National Energy Laboratories</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,17 +2928,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Not only steel producers chemical plants or power plants are taking part in this trading also banks and insurances making this really a vivid trading place</t>
+          <t>If we develop our energy resources while vigorously protecting the health and safety of all Americans our Nation can realize enormous economic and energy security benefits</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>As Ohioans discuss this issue across the state we hear one overriding concern maintaining our affordable reliable power is critical to both the pocketbooks of Ohioans and continued economic development within our state</t>
+          <t>I look forward to todays hearing to examine the challenges and opportunities to modernize our electric grid</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2948,37 +2948,37 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>To make the United States the best place in the world to manufacture and attract FDI we urge Congress and the administration more broadly to work together to create a national tax climate to promote manufacturing and embrace an alloftheabove approach to energy modernize and invest in infrastructure ensure that the benefits of regulations justify their cost implement commonsense legal reform reduce healthcare costs and ensure robust export opportunities for manufacturers in the United States including through an aggressive trade policy agenda have open markets and provides competitive export financing and works to ensure that our trading partners protect intellectual property and play by the rules</t>
+          <t>The Chair would recognize the ranking member of the Energy and Air Quality Subcommittee Mr Boucher of Virginia</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>CAFE standards have helped increase the average fuel economy of our lightduty vehicle fleet</t>
+          <t>Im surprised Mr Garman didnt sort of agree with what I told him about petroleum</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+          <t>DOEs newly created Office of Cybersecurity Energy Security and Emergency Response leads these efforts</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Electricity generation demand is largely a function of weather heat in the west and cold in the east</t>
+          <t>Between 1990 and 2000 the State of California added 2670 megawatts of new capacity</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,27 +2988,27 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+          <t>This has to do with lowenriched uranium fuel</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>And I am a strong advocate again for allowing patients to learn how to take care of their own asthma and manage their disease because it is really all about putting the power in the hands of the patient and teaching them what they need</t>
+          <t>Massachusettss long and distinguished record investing in energy efficiency is delivering great results</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+          <t>We all want safer and more fuel efficient cars</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,17 +3018,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>We doare very interested as I said in my remarks want to see the full investigation because we want to understand was there something else people were looking at that caused them to make the decisions they made as opposed to making the decisions that almost any of our drilling operations people would have made differently that led to the ultimate loss of the well</t>
+          <t>Thus because implementation of RFG will produce more NOINFXINF emissions than Georgias lowsulfur gasoline RFG may actually produce higher ozone values and adversely impact public health</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+          <t>There is a great deal of uncertainty about the size and availability of crude oil resources particularly conventional resources the adequacy of investment capital and geopolitical trends</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ultimately advanced concepts such as that of the DOEs Vision 21 program offer the advantages of clean efficient power with simultaneous production of liquid transportation fuels to reduce our dependence on imported petroleum</t>
+          <t>The concern I have I have expressed it many times on the high cost of natural gas and not only for heating our homes or cooling our homes if you are in my area of the country but also for the feed stock for our petrochemical industry</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,37 +3048,37 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>The partners are Southern Company subsidiary Georgia Power the Municipal Electric Authority of Georgia MEAG Power the Georgia Transmission Corporationa cooperative utilityand Dalton utilitiesa municipal system</t>
+          <t>And this is a key moment for the committee to play a role in addressing climate change and this bill does make several key investments for our energy future although I am willing to entertain more possibilities</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>I am privileged to chair the Subcommittee on Commerce Trade and Consumer Protection and my friend and colleague Mr Boucher who is the chairman of the Communications Technology and Internet Subcommittee of the Committee on Energy and Commerce</t>
+          <t>Energy demand growth over the past 20 years has been met by the steady exploitation of the large investments made during the last energy boom period in the 1970s</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>That is something it seems to me the Energy and Commerce Committee and particularly this subcommittee should make a high priority</t>
+          <t>However we remain at a regional disadvantage for access to much of the existing renewable energy options</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>What I wanted to say was that we looked at this and did some computations in the study that we did at NERA and what we found is that using an oil export ban to try to limit field emissions or greenhouse gas emissions associated with fuel consumption is about the worst possible climate policy you could think of</t>
+          <t>Instead we develop runoftheriver hydro a smallscale hydro wind and wood waste power and they produced three times as many jobs</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,17 +3088,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>We need to stop fighting over a diminished pot of money and recognize that our national welfare demands that we enlarge the pot so that no deserving energy technology is starved out of federal RD funding</t>
+          <t>There is no question that the oxygenate ability of ethanol is a positive</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>So is the EPA do you have the statutory authority are you considering relaxing the ethanol mandate due to the corn shortage</t>
+          <t>In global warming that means putting a moratorium on building huge new sources of COINF2INF emissions</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,27 +3108,27 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>We are occasionally reminded as we were on August 14th just how significant the loss of electricity can be to our economy and to our daily lives</t>
+          <t>First it is the tax subsidies for unconventional energy that by far have the most detrimental effects on markets prices and consumers</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Reprogramming by nuclear transfer is faster than genebased reprogramming and may entail very different mechanisms that will teach us a lot about how to make pluripotent tissues better</t>
+          <t>I mean it seemed to me we ran a 2 to 3 natural gas for a long time</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+          <t>Either Tippy dam in Michigan or the Bull Shoals dam and hydro project in Arkansas on the White River</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,17 +3138,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>When they heard about President Obamas proposal to put a tax of 10 on a barrel of American crude oil they all said what the heck what is he thinking</t>
+          <t>I am pleased to present the administrations views on the need for comprehensive energy legislation</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>In addition I believe an amendment to the FPA to give the Commission authority to assess penalties in addition to refunds and interest could act as a powerful deterrent against the abuse of market power</t>
+          <t>Therefore new highvoltage transmission lines must be built in order to get electrical power to the stations</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>There is a hearing downstairs on energy</t>
+          <t>Just last month the company was even touted by President Obama for having innovators and creating jobs that will foster our economic recovery and create clean technology to power our longterm prosperity</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+          <t>It is about the lack of restraint and the pricing power that the pharma industry has that is resulting in immense heartache for families and you can create a lifeextending painrelieving drug</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,17 +3178,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+          <t>In that case the question that I will find most important is Will moving to a highoctane fuel standard do a better job in incentivizing and creating market signals for advanced biofuels</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>So the real question is what is the cost of the fuel</t>
+          <t>Dr Scheppach my Governor and Governor deJongh of the US Virgin Islands is an active member of NGA and has signed on to the policy statements on health care reform energy and many of the other ones</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,67 +3198,67 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>We need to modernize the electric grid so that it can handle the charging even in extreme weather conditions</t>
+          <t>To date the energy sector has done a good job of guarding consumers against losses caused by a cyber or physical attack</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+          <t>It goes actually to the heart of what I have talked about which is when you look at energy independence and we look at developing as part of a national security strategy and having an energy policy when you look at those refineries and 30 percent being owned by foreign interests when you look at 30 percent of our oil or 27 being imported into the United States if you want to look at it at a freemarket perspective we dont have a free market</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Exporting oil just doesnt make any sense</t>
+          <t>There is an analysis that is going to be released in the coming weeks by the National Commission on Energy Policy</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>bullet First we need a strong and sustained push from Congress and the Administration to support biofuel production including nextgeneration cellulosic ethanol</t>
+          <t>The Department of Homeland Security will be responsible for preventing an attack on the United States by a terrorist with a nuclear weapon of mass destruction WMD</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 10 percent reduction in environmental management an 8 percent reduction in the Office of Science 86 percent reduction in energy efficiency and renewable energy</t>
+          <t>It is helpful to have this update on electricity restructuring issues and I am pleased that transmission issues will be covered in a separate hearing because it is one of the most critical components of any restructuring plan</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Chair recognizes the ranking member of the Energy and Commerce Committee the gentleman from Texas Mr Barton</t>
+          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>This has to do with lowenriched uranium fuel</t>
+          <t>And on top of that we reached an agreement last year with the operator of the three largest coalfired electric generating units in New Jersey that are going to bring major major reductions in emissions from those units</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+          <t>We are now in the midst of preparations for an important transitionfrom the prelicensing role defined for NRC in statute to the role of regulator and licensing authorityif a decision is made to authorize the Department of Energy DOE to submit a license application for Yucca Mountain</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,27 +3278,27 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+          <t>AGA represents 185 local natural gas distribution companies which deliver natural gas to 50 million customers in the United States</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
+          <t>In terms of the policies of Alberta there are policies in place to recognize that the upfront costs of developing oil sands are very very high</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>The Syrian representative a member at the time of the 661 Committee with support from other delegations questioned the reliability of the figures we quoted which we had drawn from publicly available oil industry publications</t>
+          <t>Mercury that ends up in fish may originate as emissions to the air</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,17 +3308,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Compliance with the Reliability Rules is required by the New York ISO and all entities engaged in transactions in the New York State Power System New York ISONYSRC Agreement Section 21</t>
+          <t>Primarily because of the growth in China and India for oil demand we believe oil prices will continue to increase which will place greater pressure on gasoline and diesel prices</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Strong economic growth particularly in China and the United States is fueling a surge in oil demand</t>
+          <t>We do have about 9000 megawatts of cogeneration facilities</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+          <t>I share Mr Shimkuss concerns about the effect of carbon cap and trade on this economy</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,27 +3338,27 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>These individuals in turn will become the qualified skilled workforce that the energy and manufacturing industries need</t>
+          <t>And he says he bids on a job and he has to be competitive with his bid and then overnight the price of diesel goes up and sometimes it goes up from when he starts the job several times before he finishes the job and there goes his profit</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>The prepared statement of Glenn English follows Glenn English Chief Executive Officer National Rural Electric Cooperative Association INTRODUCTION Chairman Barton and Members of the Subcommittee I appreciate this opportunity to continue our dialogue on the restructuring of the electric utility industry</t>
+          <t>We are currently bound to a petroleum infrastructure and before drivers will purchase a fuel cell vehicle they have to have confidence in a hydrogen refueling infrastructure</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>And then let me ask you when you talked about health and safety of the American folks in looking at the endangerment ruling I am wondering if you all looked at the fact because you mentioned something about the heat being higher causing folks to have strokes or heart attacks etc and I am wondering if you looked at the fact that with the electric rates going up the heating bills going up fuel oil going up that there are a lot of folks in my district who are having a hard time paying for their heat and what is the offset on the other side</t>
+          <t>Second the National Nuclear Security Administrations direct Federal oversight was narrowly focused on specific performance measures called out in the contract rather than on overall effectiveness and the interface between different areas and I will say more about this in a moment</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+          <t>Stockpiling should be carefully investigated by EPA and the exact amount of gas should be deducted from the critical use exemption totals each year</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Energy prices soared and carbon pollution increased</t>
+          <t>Mr Linn and Mr Duplessis obviously with this being the largest oil spill in the history of our country theres lots of media attention</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,37 +3388,37 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>And what is the US consumption of gasoline per day</t>
+          <t>The Report notes that The energy burden on lowincome households as a proportion of income is four times greater than for other American households</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Today we depend on these technologies for everything from social interaction to home security the operation of critical services like power plants and the electric grid</t>
+          <t>Sir I think the difficulty with hydrogen is around the infrastructure and that would depend on the investments that were necessary to transport it and store it and all of that I think happens over a much longer period of time</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
+          <t>Fueling Infrastructure The third challenge we have to overcome is developing business models for the deployment of a hydrogen infrastructure and piloting technologies to support it</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>This one is from TXU Energy down in Texas</t>
+          <t>This work to better organize the healthcare market into highvalue networks is necessary and desirable and we would urge that folks make a differentiation between consolidation to create excessive market power and integration of providers in the market to create a highvalue network</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>They have no electricity</t>
+          <t>Also given the responsibility that has been given to the NERC to ensure the reliability of the bulk power system in North America would NERC consider it sufficient to look at the impact of regulations one by one instead of in a cumulative analysis</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
+          <t>Boutique fuels only result in supply problems when a refinery problem or pipeline outage occurs</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Lawmakers must examine the welltowheels cost and impact of EVs from power plant energy distribution to battery disposal</t>
+          <t>The Association of Oil Pipe Lines is a trade association of owners and operators of crude oil and refined petroleum product pipelines</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+          <t>So I would just ask that you go and pursue the administration policies that are killing energy production and causing higher gas prices instead of going to Saudi Arabia</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>One of the crazy things the FDA does not have subpoena power</t>
+          <t>This further diminishes their bargaining power because it is now an emergency</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,37 +3478,37 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+          <t>What do you see as the Federal Governments proper role in encouraging the use of alternative fuels in vehicles</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+          <t>There has been a lot of investment and that has been a lot of indirect jobs that have gone into that in building renewable refinery capacity and it is all happened not at the expense of the petroleum industry</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Also consistent with NPC recommendations the program promotes maximum collaboration between the federal government industry and academia and it establishes a program that is an order of magnitude larger than the Department of Energys existing gas supply RD program</t>
+          <t>It also provides for the issuance of orders to identify and mitigate vulnerabilities to protect the bulk power system from cyber attacks</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>I believe the Department of Energy actually flew a Saab into the US to get some testing done at Oak Ridge recently but there is technology available</t>
+          <t>Electricity generation demand is largely a function of weather heat in the west and cold in the east</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,47 +3518,47 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>STATEMENTS OF RODNEY MASNEY VICE PRESIDENT TECHNOLOGY SERVICE DELIVERY INFORMATION TECHNOLOGY OWENSILLINOIS THOMAS D BIANCULLI CHIEF TECHNOLOGY OFFICER ZEBRA TECHNOLOGIES CORPORATION DR THOMAS R KURFESS PROFESSOR AND CHAIR IN FLUID POWER AND MOTION CONTROL GEORGE W WOODRUFF SCHOOL OF MECHANICAL ENGINEERING GEORGIA INSTITUTE OF TECHNOLOGY SANJAY POONEN CHIEF OPERATING OFFICER VMWARE STATEMENT OF MR MASNEY Mr Masney</t>
+          <t>A more predictable rational and flexible air quality permit process including reforms to newsource review will allow for more investment in domestic facilities including carbon capture and a stronger domestic manufacturing base instead of production in other countries who dont share our countrys commitment to stewardship</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Emissions markets are established early and can provide accurate price signals to all involved</t>
+          <t>Everybody on this panel supports there being not just on stationary sources but on mobile sources like tailpipe emissions for cars and trucksthe industry and labor union that represents UAW supports a mandatory cap and trade system</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+          <t>Of course some might argue that there is big difference between running a coaltochemicals manufacturing facility and a coaltoelectricity power plant</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LIPA is recognized as a leader in conservation and efficiency measurespromoting conservation installing of new energy efficient lighting and appliances and using energy efficient technologies and renewables such as geothermal heat pumps and photovoltaicswith the implementation of a fiveyear 170 million Clean Energy Initiative</t>
+          <t>The electricity cost in 2020 under the LiebermanWarner Bill was 28 to 33 percent increase and in 2030 101 percent to 129 percent</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+          <t>I look forward to the testimony and to identifying what may be possible to do while preserving the essential roles of heavyduty engine power in our economy and way of life</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>You do have on the website a page and email address to accept public comments and requests regarding the Federal Power Act section 202 but I just want to make sure that they will be posted for the public to see</t>
+          <t>We are partnering with Columbus Power on many many ranges for smart grid and we are also looking at just the charging infrastructure in general</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,17 +3578,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
+          <t>The prepared statement of Glenn English follows Glenn English Chief Executive Officer National Rural Electric Cooperative Association INTRODUCTION Chairman Barton and Members of the Subcommittee I appreciate this opportunity to continue our dialogue on the restructuring of the electric utility industry</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,27 +3598,27 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Senator Daschle has introduced S 670 which adopts an ethanol mandate similar to the approach to S 2962</t>
+          <t>what is your electricity analyst view this concept of economic dispatch where the generation that is the most economic and the least cost to develop gets some sort of a priority to be used first before you go to the less economically which tends to be the older plants that have been in thebasically in the baseload for a number of years</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+          <t>Under the Federal Power Act the Federal Energy Regulatory Commission known as FERC oversees electricity markets and the physical and virtual products traded within them</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+          <t>We dont add carbon monoxide to make product look fresh beyond its code date</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,17 +3628,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>The Clean Power Plan as proposed will call that into question</t>
+          <t>NEPOOLs old financial assurance policies allowed the organization to rescind membership in the Pool but did not allow NEPOOL to cut off a company from trading in the energy markets in response to a situation like that posed by Enron</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+          <t>I am just concerned that EPA has taken the environmental cop off the beat and will go on polluting without fear of repercussions</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3648,57 +3648,57 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>That was in my energy business</t>
+          <t>I am pointing out the title of this hearing is legislation to respond to the BP oil spill and yet I dont see anything in this bill that actually helps us address the problems we are dealing with today</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>In approving our report Secretary Abraham said The management of the nuclear weapons complex is my most important responsibility as Secretary of Energy</t>
+          <t>However while we look forward to advanced nuclear technology development it is long overdue to solve our Nations nuclear waste disposal challenge</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Hes accompanied by Pat Hoffman Principal Deputy Assistant Secretary in the Office of Electricity who can provide technical perspective from her experience addressing cybersecurity and energy emergency functions</t>
+          <t>Therefore the agenda is one of purely decarbonization and climate change not really of energy security not really of air pollution because if it were about air pollution or just clean energy you would have uniform support for things like diverse nuclear power natural gas and so forth</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>We regularly review our program to identify ways to improve it and in just the last 2 years we reduced the threshold for positive tests for testosterone greatly increased our use of highly sensitive carbon isotope ratio testing increased inseason random testing by 40 percent increased the penalty for repeat violators added many new substances to our prohibited list and tripled the number of times a player may be tested in the offseason</t>
+          <t>That is why Canadas oil sands is nearly as valuable as an example of energy policy done right as it is for the oil itself</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>We depend on Polk to meet our customers energy needs</t>
+          <t>We cut back a lot on the energy efficiency programs because we have done so much so far</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+          <t>In another example we believe US EPA has misapplied the economic feasibility analysis to predict the reliability on the bulk power system</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,17 +3708,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+          <t>No matter what decision we make on Yucca Mountain we still have a nuclear waste disposal issue</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>By themselves smallload or residential customers lack the power and resources to negotiate better deals banding together through aggregation programs local governments can wield purchasing clout on behalf of their residents for lower prices</t>
+          <t>Two air pollution emissions were reduced</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,37 +3728,37 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+          <t>One of every eight people gets their electricity from a rural electric cooperative nationwide</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+          <t>That is going to put pressure on conservation</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Our notforprofit independent status precludes me from choosing between fuels</t>
+          <t>American innovation and our abundant energy resources can and should be leveraged to protect our allies around the world from unreliable and unfriendly regimes and promote our interests</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+          <t>Too often lowincome older persons are faced with the choice of risking their health and comfort by cutting back on energy expenditures or reducing spending for other basic necessities</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Electrifying millions of American buildings will require sensors smart grid solar batteries carbon capture and storage the Internet of Things cloud computing mobile computing edge computing</t>
+          <t>The Maryland Energy Assistance Program which distributes LIHEAP funds locally is expected to receive 32 million from the Federal Government</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,17 +3778,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Shifting gears I believe the Energy Star program is a nice complement to the mandatory federal energy efficiency standards for many energyusing products in that it helps consumers identify those models that go above and beyond the minimum standards</t>
+          <t>Muir is concerned only about carbon</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Although the accident ultimately caused two fatalities and the demolition of the area within the facility the most catastrophic consequence the release of almost 7 tons of MIC gas did not occur</t>
+          <t>But just kind of bottom line we know that for every fullservice hotel like a Marriott we send millions of dollars of buying power back into local communities through the salaries and supply chain</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Electric utilities also have a long history of providing mutual assistance and the same concept is being applied by the ESCC for mutual support in response to cyber incidents though challenges unique to cyber must be taken into account</t>
+          <t>Once a public health emergency has been declared MSEHPA allows authorities the power to seize private property for public use that is reasonable and necessary to respond to the public health emergency</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,27 +3808,27 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>We do have about 9000 megawatts of cogeneration facilities</t>
+          <t>As you indicated my name is David Duquette and I chair the US Nuclear Waste Technical Review Board Executive Committee</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+          <t>There is no plausible scenario that I have ever seen where African carbon emissions are going to affect global emissions so if it is a global problem the problem is in the current emitting countries it is notyou know us denying Ghana two or three natural gas power plants is going to have absolutely zero affect globally</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+          <t>He is also board president of the Distributed Wind Energy Association and is testifying on behalf of the Distributed Wind Energy Association</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,17 +3838,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
+          <t>In order to allow our power sector our engineering sector transportation sector manufacturing sector to do the job that I think in their heart instinctively they want to do we have got to give them the assurance that the timetables we establish have got to be such that they can keep pace with their responsibility to meet the needs of the citizens today and at the same time engage in the research and development of the solutions that we have but do it in a timely fashion</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+          <t>Do you think that all drinking water systems that are located near wastewater treatment facilities that accept drilling waste should monitor intake water for radioactivity and other potentially hazardous byproducts of these activities</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>How do we construct the buildings of the future that meet the demands and growing population while conserving our limited resources</t>
+          <t>The NPCC system appears to have remained stable during this initial power surge</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+          <t>If thats the case for a State like Illinois if 40 percent of the power that we generate is nuclear what would that do to our national energy policy and the pocketbook issues what would it do to the price for the individual consumers</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
+          <t>We are committed to working with Congress to explore ways to maintain or enhance environmental benefits of clean fuels programs while exploring ways to increase the flexibility of the fuels distribution infrastructure and minimize costs</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,107 +3888,107 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Nobody disagrees with the need for the additional power</t>
+          <t>Because the States want to be able to enforce requirements on others where they dont have control in their own jurisdiction to make sure that their neighboring States or regions are reducing the emissions</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Mr English you indicated that you are looking for an out was it 4 million megawatts is that what it was</t>
+          <t>While I have said on several occasions that the Yucca Mountain project merits independent and objective oversight I am also concerned that this Subcommittees myopic focus on Yucca Mountain has diverted its attention from other pressing nuclear safety issues</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Public power also sells any excess power when available in the wholesale market</t>
+          <t>More recently while on the US Air Force Headquarters Staff I participated in developing and managing the response to the real world cyber attacks against the Department of Defense information infrastructure that came to be known as Solar Sunrise and Moonlight Maze</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The National Academy of Sciences has referred to the US electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous affordable and dependable manner</t>
+          <t>According to the Congressional Research Service nuclear research and development has gotten more than 60 or 66 billion in energy research and development funding from 19481998</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+          <t>We dont harness the electricity we can from natural gas we dont sell it we dont pull it up we dont benefit the economy from it</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+          <t>3136 correctly understand the importance of not prematurely reimposing the nuclear waste fee especially given the substantial balance and large investment interest which accrues annually</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>And Mr Shimkus is from a State that has the most spent nuclear waste in the country</t>
+          <t>As potential vulnerabilities emerge in the Nations utility distribution infrastructure ensuring reliable sources of energy for our installations has become increasingly challenging</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+          <t>In their wisdom the founders of our Nation gave Congress the constitutional power to protect the Intellectual Property of Authors and Inventors in order to promote the Progress of Science and the useful Arts</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+          <t>We need to modernize the electric grid so that it can handle the charging even in extreme weather conditions</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>This bill includes vital provisions to support domestic clean energy manufacturing and export promotion</t>
+          <t>These include modernizing the electric grid by using proven technologies to better contain outages reduce recovery times and lower operating costs</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>What we also do is allow forwhat the legislation does it allow for technology limits 60 percent I think to one technology 90 percent for two and what that is doing there is saying that although wind today is the cheapest form of renewable power generation ultimately because of these cost curves you want to induce more competition and to see oil prices continue to come down</t>
+          <t>I think it is possible on a bipartisan basis to do things that actually further the science further the research into carbon capture and conversion accelerate the use of existing technologies like nuclear power some of the alternative energy sources that we know are zero emissions wind power new hydropower things like that</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>During the campaign the President proposed a doubling of the State Energy Program to 76 million and the Weatherization Program to 306 million</t>
+          <t>The fact remains it was under Secretary Salazar that BPs initial exploration plan was reviewed and approved by the Minerals Management Service</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,17 +4008,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+          <t>And does that make other forms of energy work better or does it replace them</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+          <t>Going further if we aggressively improve efficiency by four or five percentage points then emissions could fall by 250 metric tons about 13 percent of last years carbon dioxide emissions from coal power</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+          <t>With regards to research and investment I do agree with Dr Howard that we believe all sorts of fuel need to be optimized</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Republicans claimed thenjust as they do nowthat the solution was to produce more oil domestically</t>
+          <t>I would also like to remind everyone that this is a pilot project a 2year pilot project which I think will give the Department of Energy adequate time to assess the situation and it certainly would be of benefit to our country</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,37 +4048,37 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>You say coal is not competitive</t>
+          <t>FERC grid operators State public utility commissions and power plants even progressive power companies are already planning for the changes that are under way</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Thus those tax policies stifled the industry at a time when US energy demand was increasing significantly</t>
+          <t>In his address to Congress earlier this week President Obama outlined his vision for a clean energy future that will not only help turn around our ailing economy but also drive new investment and job growth for decades to come</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>A special report of the Institutes oxygenates evaluation committee Cambridge MA Health Effects Institute April 1996 httpwwwhealtheffectsorgPubsoxysumhtm National Institute of Environmental Health Sciences 2002 MTBE in gasoline National Institute of Environmental Health Sciences March 13 2002 httpwwwniehsnihgovexternalfaqgashtm SUP13SUP Toccalino supra citing inter alia National Science and Technology Council 1996 Interagency assessment of potential health risks associated with oxygenated gasoline Washington DC National Science and Technology Council Committee on Environment and Natural Resources February 1996 httpwwwostpgovNSTChtmlMTBEmtbetophtml Office of Science and Technology Policy 1997 Interagency assessment of oxygenated fuels Washington DC Office of Science and Technology Policy National Science and Technology Council Executive Office of the President of the United States June 1997 264 p httpwwwepagovomsregsfuelsostpfinpdf U S Environmental Protection Agency 1997 Drinking water advisory Consumer acceptability advice and health effects analysis on methyl tertiarybutyl ether MTBE Washington DC U S Environmental Protection Agency Office of Water EPA822F97009 December 1997 48 p httpwwwepagovwatersciencedrinkingmtbepdf</t>
+          <t>Blending ethanol is common practice throughout the country and logistics for converting terminals is very straightforward</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Of course when Katrina did hit it did substantially more damage to the energy infrastructure than the futures market had anticipated and prices increased further</t>
+          <t>Unchanged if these power plants shut down</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,17 +4088,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>You noted at the outset of your tenure at the EPA that your goal was to refocus EPA on its intended mission return power to the states and create an environment where jobs can grow</t>
+          <t>We took a plant in Michigan called the Michigan Truck Plant which produced Expeditions and Navigators large SUVs and converted it into making small cars and now that plant makes Focus CMax hybrid CMax plugin hybrid Focus battery electric vehicle all in the same plant down the same line only place in the world where we do where that is done</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>We have one of the greatest resources in the world and right down the road here 30 minutes from here Eastman Chemical Corporation uses 60 carloads of coal every day that you all produce and a railroad takes to them</t>
+          <t>For instance over the last several years FERC issued two landmark orders facilitating energy storage and aggregated distributor energy resources participation in our organized wholesale markets</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,17 +4108,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Moreover there is no reason to believe that such activities have had or will have any practical impact on the pursuit of nuclear weapons by proliferating states on the comprehensive diplomatic efforts ongoing to address these threats or on the possible modernization of nuclear weapons by China or Russia</t>
+          <t>Anticipating efforts in the first half of 2006 particularly in the first quarter and moderating energy prices will create a seesaw effect for the US economy and manufacturing</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+          <t>Utilization of the Foothills system through Canada under the Northern Pipeline Act provides regulatory structure and certainty for Alaskan gas as no new legislation or regulations are needed in Canada</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Question 3 How does the new supply margin market power test in the Commissions order of November 20 differ from the established hubandspoke test for market power</t>
+          <t>Still despite these initiatives California remains in danger of power outages when demand for electricity climbs this summer</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4138,17 +4138,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Whereas much of the risk in developing the traditional telephony networks was shouldered long ago in a market where the incumbents had monopoly power the development and deployment of broadband presents an enormous and immediate financial risk for firms</t>
+          <t>Then the President issued two executive orders intended to increase energy production</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>VW willfully and knowingly cheated having installed engine software in 480000 diesel vehicles to defeat emissions tests</t>
+          <t>Public power systems throughout the United States have seen direct economic benefits from deploying broadband networks</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,47 +4158,47 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>He is also board president of the Distributed Wind Energy Association and is testifying on behalf of the Distributed Wind Energy Association</t>
+          <t>Id like to talk about one thing that largely did work and thats nuclear energy</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+          <t>The jurisdictional principal is the root principle of administrative power</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>I look forward to the testimony and to identifying what may be possible to do while preserving the essential roles of heavyduty engine power in our economy and way of life</t>
+          <t>Well in a side note a number of us went to Mexico for an interparliamentary the Friday before Thanksgiving and one of the things that was the highlight of our discussion with the Members of Congreso was the recent decision on the pipeline from Texas natural gas pipeline to northern Mexico because they dontobviously have a lot of resources but not enough production</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+          <t>However the US Congress does possess the power to overturn some of the most important barriers facing Distributed Generation today</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+          <t>As our country pursues interim storage solutionsand ultimately a permanent repository for spent nuclear fuelit is critical that we ensure the funds necessary to safely transport and store this material are available</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Number 2 you have got to have six greenhouse gases so the lowhanging fruit that can be accomplished by changes that reduce other greenhouse gases like methane or NOx any of those the hydrofluorocarbons et cetera can help get rid of it</t>
+          <t>Economies are built on energy and materials</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,27 +4218,27 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+          <t>We are still overly dependent on foreign oil from countries that clearly we have seen especially over the last 15 years do not represent our interests and values</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+          <t>Technological advancements on the electrical grid from transmission through end use have helped improve efficiency and reduced emissions</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+          <t>We had better find a way to use coal in a clean manner</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>These are just a few of the growing costs of carbon pollution</t>
+          <t>In my testimony today I will describe the CFTCs oversight of the energy futures markets</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Our testing of mercury emissions indicates removal rates well in excess of the 90 percent required by the Mercury and Air Toxic Standard Rule</t>
+          <t>This outdated physical integration requirement prevents utility companies from investing capital outside their geographic region shutting off a valuable potential source of domestic capital investment in needed energy facilities and ironically fostering the very kind of concentration in regional energy markets that FERC is trying to reduce</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,17 +4268,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Economies are built on energy and materials</t>
+          <t>In 2000 these nuclear power plants produced a record 755 thousand gigawatthours of electricity</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>So I am a bit confused because Ms McCabe testified that the EPA found that fuel efficiency technology development was moving faster than they had expected and is being implemented in the early years of the program</t>
+          <t>As a physician and someone who represents constituents who have experience too many environmental injustices I am committed to working with members of this committee to create a cleaner and healthier environment for all</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,47 +4288,47 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>In some places including my own house the power took a couple of weeks to restore</t>
+          <t>Adoption of existing test procedures developed through the Energy Star program where energy conservation standards are proposed to be set based on Energy Star performance requirements is appropriate</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>I am determined to work with my colleagues to do everything in our power to preserve this important State right</t>
+          <t>While that is a viable use for injected carbon we also need to store large quantities of it underground indefinitely and on that front further research development and demonstration is clearly called for</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+          <t>And subsequently the utility which was buying the energy for the consumers in primarily the spot market didnt know what had been going on subsequently said they had been buying from only 2 or 3 sellers at times and locations in the city</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+          <t>Mr Wood you had power</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>So only the lobby and one exam room had electricity but they needed full electricity to meet the demands of their patients</t>
+          <t>But I think when I go back and reflect on the hearings as many witnesses have stated the Federal Power Act and the competitive market model have served the nation well and would urge everybody to keep that in mind as we debate some of these other issues</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>As you will hear today however we believe that elements of the alternative fuels discussion draft as currently constructed will not fully achieve those objectives and may ultimately be counterproductive</t>
+          <t>In fact President Trump had proposed doing away with the Northeast gasoline supply reserve which had been created administratively by President Obama in response to the dangerous shortages that occurred in the wake of Superstorm Sandy including in my area of New Jersey</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,27 +4348,27 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Next to Ms Saunders is Mr Tim Richards who is the Managing Director of International Energy Policy for General Electric Company</t>
+          <t>We are the worlds largest economy but if we do some things that are very draconian on our emissions here in the United States and really all it does is cost us jobs I am very skeptical that the rest of the world is going to follow suit</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+          <t>President The Association of American Medical Colleges The Association of American Medical Colleges AAMC is pleased to submit for the record testimony to the House Energy and Commerce Subcommittee on Health on the need to replace the Sustainable Growth Rate SGR methodology used to calculate the update for Medicare payments under the Physician Fee Schedule physician payment update</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Mr Danly am I correct that under PURPA qualified facilities must have a capacity less than 80 megawatts</t>
+          <t>Do we have any planes that can fly on electricity plugin hybrid technology</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,17 +4378,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>We dont add carbon monoxide to make product look fresh beyond its code date</t>
+          <t>As states get closer to the implementation date for their fuel programs the greater the temptation to change the date rather than deal with the uncertainty</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+          <t>It is the agency that makes sure your coffee maker does not burn down your house your baby does not die from a defective crib your power drill doesnt electrocute you your hot water heater does not poison you your childs toy is not made of lead et cetera and these are all real examples of defective products that have been recalled and they demonstrate the important role the Commission should play in protecting consumers</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,17 +4398,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+          <t>This KXL scheme is equivalent to a 4 billionayear tax on the oil we are already getting from Canada with all the money going from American wallets and pocketbooks to oil companies</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>I havein the Energy Bill we talkedwe addressed some downwind provisions</t>
+          <t>Given the potential impacts of EPAs proposed rules on the bulk power system such coordination is critical to ensuring that EPA does not enforce its rules in a vacuum</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+          <t>And on the battery side it is really beautiful because we are very fuel agnostic</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,21 +4428,4021 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+          <t>Do you agree or disagree that it is too late to prevent the carbon dioxide emissions from increasing to 450</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Dont you think particularly dealing with climate change and carbon because if a ton of carbon goes up in Houston Texas and a ton of carbon goes up in China it is basically the same on the worldwide impact unlike some of our other pollutants</t>
+          <t>And the bulkpower system includes facilities and control systems necessary for operating an interconnected electric energy transmission network</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>And many of the coops in my district have supported an alloftheabove energy policy</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>On the other hand keeping the focus on energy efficiency is not easy when energy prices are low</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Texas Pacific and Kohlberg Kravis Roberts the famous KKR purchased Texas Utility Corporation and agreed to terminate 8 of 11 proposed coalfired power plants</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>We need to make sure that across the board from grid modernization that is needed to facilitate EVs to the buildout of electric charging infrastructure to the manufacturing of the vehicles themselves that we are harnessing that opportunity here in the US and with domestic content labor standards we are investing and leading the world in the manufacture of those vehicles and technologies</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>There were no septic systems no water systems and they ended up drilling their own wells and they become really a problem</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>And there are a lot of factors for this but one of the big reasons is this massive drive towards ethanol</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>This blackout did not arise from a lack of electric generation supply</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Even using power from traditional coal plants to charge a plug in hybrid is environmentally superior for CO2 and criteria pollutants to driving a regular Toyota Prius</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>If you want to expand on that and also doesnt a twotier system basically already exist since all clean resources other than nuclear have outofmarket payment subsidies and everything that impact their bid price</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Michael McNulty Attachment B clean power group multiemission control strategy materials Clean Power Groups MultiPollutant Emission Control Strategy The power generation sector is a major contributor to US air pollution</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>A mere requestsomehow provide some assistance so they could be an existing power plant and have beenhave been rebuffed</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>We know from past statistics that the solar industry is in the top 10 growing industries in our country</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>About 20 some percent and yet their carbon footprint is how much more for that production</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>1013 would create more red tape and delay and would severely reduce protections for rivers and fisheries impacted by hydroelectric generation</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>And while it is so exciting to have vehicles that are keyless and others that turn off and on for energy efficiency and others that will be plugged in this committees work is going to have to continue to make sure that we are doing the things we do to keep people safe</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>I mean the National Association of Manufacturers claims our country would lose 3 to 4 million jobs as a result of a cap and trade energy tax so I just wanted to know if you or any other members of the panel want to answer that question</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>I want to hear whats fair when you shut down a coalfired power plant and it destroys the fabric the economic basis to run a school system in a county when millions of dollars are lost</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>More importantly the draft language does not currently include language that would substantially thwart the Federal Energy Regulatory Commissions FERC current efforts for continued industry restructuring</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Now I will disagree slightly in part with Mr Waxman on market forces being simply prices because sometimes energy feed stock sources are regional</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>I appear this morning on behalf of the National Association of Convenience Stores NACS and the Society of Independent Gasoline Marketers of America SIGMA</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>The fuel diversity should be a cornerstone of our national energy policy as an important hedge against supply disruptions and price volatility</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>No market participant in interstate wholesale electric markets should be immune from FERCs investigative and remedial authority</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Some are reliably available 24 hours a day and seven days a week and ideal for baseload power while others are not</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Im frustrated that the Bush administration is decimating important R D programs and not establishing realistic and attainable goals for our energy future</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>The mismanagement for example of nuclear waste clean up processes has been an ongoing Department of Energy problem across several Administrations</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Mr Sokol your testimony says that the problems with Enron shouldnt stop us from doing electricity legislation because these problems are primarily about bad investments and misuse of accounting</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Would todays discussion draft make it easier for companies to install newer and cleaner equipment at existing facilities</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>We have frequently analyzed the consequence of lower world oil prices on different regions of the world</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Members of my local union located in Michigan spent months working on the TransAlaska pipeline which covers 800 miles and carries oil from the North Slope of Alaska to Valdez Alaska</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>The other waiver authority which you referenced is a general waiver authority where if the administrator can either be petitioned by a party or can on her own determine that the RFS implementation would create a severe economic harm to a region or a State and that the previous conversation we have been petitioned a couple of times and determined that again because of market dynamics and the demand that the refining industry has for ethanol that the statutory test simply was not met and we are not allowed to grant that waiver</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>History is on the side of those who want to act on climate change those who believe in the power of American innovation and our ability to successfully meet any challenge and who look to the future rather than the past</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>There is not existing biology there would be no reason to have organisms involved to do this and pump lots of hydrocarbons</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>As an integral part of their transmission systems interstate natural gas pipelines own and operate a majority of the natural gas storage capacity in the United States</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Throughout the South and Southeast state governments have enacted legislation or implemented new regulations to encourage new nuclear plant construction</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>This added step of accountability is crucial to keep an account of delays and avoid the increasing backlog of hydropower relicensing</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Mr Reicher if we do nothing other than roll back EPAs modest steps to reduce carbon emissions are we at risk at losing the clean energy jobs race with China</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>So what we say is we support a vigorous RD program both in reactor development and in recycling reprocessing spent fuel</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>I will simply say in closing Mr Chairman that one instance of which I am particularly aware the Department of Defense has worked closely with a company in Orange County California which I represent Liquid Metal Technologies to develop an alternative weapon an alternative to depleted uranium emissions that have proven toxic if not severely toxic</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>test for generation market power Since beginning to grant marketbased rates rate deregulation to public utilities in the 1980s the Commission primarily focused on the applicant and employed a hubandspoke analysis to determine whether an individual entity and its affiliates have generation market power</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Rush I think too you know in the future we would do well to include Ms Glover in future discussions because energy efficiency sometimes just kind of gets pushed to the side</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>In recent years we have seen the impact of relying almost exclusively on natural gas based plants for new generation tight gas supply higher prices and backlogged projects for natural gas based plants</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Long Islands power generation costs are generally higher that those in Connecticut</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>We are occasionally reminded as we were on August 14th just how significant the loss of electricity can be to our economy and to our daily lives</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>One of the projects that we delivered at the beginning of last year to San Diego Gas and Electric the speed at which the project was actually delivered to San Diego Gas and Electric was about 6 to 8 months</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Today we are examining a law the Renewable Fuel Standard or RFS that is driving development of those new lowcarbon renewable fuels</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Therefore the benefits resulting from the reliable and costeffective provision of generation transmission and distribution service flow directly to public power customers and communities</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>The nuclear industry is demanding that you and your constituents the American taxpayer flip the bill for an unnecessary but more importantly unsafe project</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Because the answer is then if you take something like the Quadrennial Energy Review Mr Mullin</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>The good news is that almost everything you can imagine as an energy source is also something that can be made to work to produce hydrogen</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Excavation damage is the leading cause of natural gas distribution pipeline incidents</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>The depressing part of my introduction is I realize I have been at this for 3 decades as part of the House of Representatives staff during the oil embargoes and after I was with Mr Garvin in 1983 and 1984 in the Energy Department running conservation and renewable programs and have been a consumer advocate for the last 10 years</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>In this same vein expert witnesses are called before us today to discuss policies to deeply decarbonize our economy and strengthen our infrastructure against threats like climate change</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>The problem is that if we look ahead and we look at the fact that natural gas is still a fossil fuel comes with CO2 emissions a coaltogas switch will just not be enough to meet our climate goals</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>If you export natural gas you factor into that equation the effect on US consumers and whether it is in the best interest of the United States</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>In fact Congress is in the midst of playing local politics with the most important energy project in the United States</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>But if only 2 percent of the natural gas escapes through to the atmosphere then we are going to be in worse shape than if we used coal</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>For example for an average family driving 2500 miles a month a 1 gallon runup in gasoline prices as we have seen in recent weeks takes 120 out of their monthly budget if they are driving vehicles that average 21 miles per gallon but it would only take 60 out of their budget if those vehicles average 42 miles per gallon which is within our technical capability</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>A sustained period of upward pressure on electricity prices has negative implications for US economic growth and the competitiveness of American industry in a global marketplace</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Well just to add on that most of the nuclear plant sites in the country have had to add additional storage capacity either in the form of expanding the pools themselves or how to manage the pools or putting them in what is known as dry cask storage</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>EPAs greenhouse gas rule will impose a de facto ban on construction of new coal</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Diesel is the way of the future and I am hopeful that its shortterm benefits will not be overlooked by the Administration or the Congress even as we examine longer term strategies</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>I was sitting here listening thinking of a hearing we had not many weeks ago and Mr Greenspan was with us talking about the current situation with natural gas supplies and pricing in this country</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>That is causing heating</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Since 2007 California regulators have permitted the use of public safety power shutoffs by electric utilities to prevent the ignition of wildfires during highwind events</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>To promote economic growth and strengthen security President Obama has called for an alloftheabove strategy that develops every source of American energy</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>I introduced a bill called the Renewable Energy Jobs Act that will provide pilot programs for training individuals for employment in renewable energy and energyefficient industries on site in these companies</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Funding of energy efficiency programs is a key piece of such a public benefits program with discretion provided to states</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>And that is the kind of dual standard that the Republicans want us to accept even as oil has dropped from 57 percent imported to 45 percent imported since Bush walked out the door in January</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Its very simple Because they have no incentive whatsoever to give access to the resources to oil companies</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Other FreedomCAR challenges include technical market infrastructure and public policy hurdles before fuel cell vehicles are commercially available and DOEs vision of a petroleum free emission free transportation system is a reality</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>It will take the place of 2000 megawatt coalfired power plants</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>The conference report established funding for an advanced nuclear fuel recycling program aimed at developing proliferationresistant nuclear fuel recycling and transmutation technologies</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Also the ability of utilities to provide affordable and reliable energy and power to people</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>National and state energy policy can provide for the introduction and demonstration of these other sources so with time they become an integral part of the market</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>As a result diesel vehicles will achieve gasolinelike emissions levels</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>If we go out to the market to buy power from a new power plant it is at least 9 cents</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>For the first time in six decades the United States is a net natural gas exporter</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Congress should further accelerate the effective date of energyefficiency tax incentives in the Energy Policy Act and fund energy awareness programs at the Department of Energy</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>I have been downstairs at the hearing on subsidies and price gouging on gas prices and we will be bouncing back and forth all day</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Governor Corzine has made it clear that lowering energy prices is important for our economic Mr Shimkus</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Nobody knows what theyre doing but they claim it has something to do with a gas pipeline</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Dr Ebinger paints a very positive picture resulting from lifting the crude oil export ban reporting a gain in GDP over the next 25 years of 600 billion orbillion to 18 trillion</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>We are approaching the dawn of as I made reference to in that film the new American energy era a time of energy abundance security and yes even independence</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>The Charlotte ordinance requires a carbon monoxide alarm in every dwelling unit in the county</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Leading Democrats are calling for the elimination of nuclear powerfortunately not our Chairman herebut nearly every single major candidate wants to eliminate or phase out nuclear power</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>In conclusion I would say new nuclear power construction is prohibitively expensive renewable power is variable and not yet scalable and coalfired power plants are under constant attack from the EPA</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>It goes on to say that the price of coal which fires half of the US power plants has doubled since last year largely because of surging energy use in countries such as China and India</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>When that merging occurs will we on the Energy and Commerce Committee be made aware of what that structure looks like and how the fund then subsequently is to be administered</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>And I am a strong advocate again for allowing patients to learn how to take care of their own asthma and manage their disease because it is really all about putting the power in the hands of the patient and teaching them what they need</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Remove Market Barriers The first problem we need to solve is a procedural barrier that keeps solar energy from accessing the electricity market</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Well you want policies that can lead to even faster and cheaper emissions reductions than the carbon price would achieve on its own</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>We believe to create a truly competitive vibrant energy industry these constraints should be removed</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>We believe that the first of these recommendations P0001 related to the use of E911 when damage to a pipeline results in the release of gas or other hazardous substance has been resolved with a change to the best practices and recommendations to OPS earlier this year</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>It was just sucking the power through the grid and had that shut that plant down it would have gone right around the horn over to Chicago</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Our esteemed colleague Chairman Emeritus John Dingell on the Democratic side who led the negotiations on the 1990 Clean Air Act Amendments wrote I would have difficulty concluding the HouseSenate conferees who rejected the Senate greenhouse gas regulatory provisions contemplated regulating greenhouse gas emissions or addressing global warming under the Clean Air Act</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Also because Kansas allows local utilities to flow through the cost of gas to consumers the ratepayers experienced dramatic increases in the cost of natural gas during the winter seasons</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>In both cases cost is a key consideration helping determine which pollution sources should reduce emissions by how much and on what timetable</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>We have a memorandum of understanding with them that they deal with the actual drilling process itself the construction of the wells those kinds of things</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Privately shipped items are safely regulated and federally overseen by both the US Department of Transportation and the Nuclear Regulatory Commission NRC</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>One of the technologies we are currently applying alongside of the SAGD is cogeneration a very energyefficient process that produces both steam for our operations and electricity for the sale to the grid</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>In this case industry recommended that to improve the NSR program we should allow owners of a facility to avoid the requirements of the NSR program if they improve facility energy efficiency or if they invest in a project for pollution prevention or pollution control simply on those bases</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>It is more important than renewable technology development more important than any efficiency improvements and more important than advances in nuclear energy development</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Yes we share a commitment with Canada to work towards energy security</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>And we under this plan would not have the flexibility to build a new coal plant if natural gas prices go up because the technology is not available to be able to do it in an economic way that would make it possible to do it</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>And then the third reason I think we have seen renaissance in the nuclear area is that the environmental benefits of nuclear energy are being recognized</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>This simply reflects the large amount of capital necessary to find refine and distribute petroleum products</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>I dont know that we are going to pick and choose the generation sources or the energy sources that is where the American peoplefor other policymakers</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>We have a great record in the Northwest on saving energy through conservation</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Administrator Jackson and Rear Admiral Watson yesterday the Coast Guard ordered all ships participating in the BP oil spill cleanup to cease operations after crew members on three boats reported health problems</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Along these same lines the Nuclear Waste Policy Act of 1982 could be amended to provide the Commission with the sole authority to establish standards for highlevel radioactive waste disposal</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>A delay will also give time for utilities to avoid what appears to be an overreliance on natural gas</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>As we know natural gas prices have risen sharply and likely will not drop substantially until more production goes on line in the United States</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>In addition we need to take into account potential threat to the security of gas deliveries to consumers that will occur if we place a greater demand on our production and pipeline delivery capabilities than we have resources to meet</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>So only the lobby and one exam room had electricity but they needed full electricity to meet the demands of their patients</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>But what I am interested in is how we find that sweet spot where we can develop North American energy resources and effectively manage our carbon emissions simultaneously</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>NNSA is responsible for overseeing the approval while consulting the Office of Nuclear Energy and the DOE general counsel in addition to interagency coordination</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>The budget proposal also makes several misguided changes to the structure of the power marketing administrations PMAs</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>First the nuclear crisis in Japan is now in its fourth week with no end in sight</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>As you are aware ConocoPhillips supports passage of a comprehensive Federal law establishing a clear and transparent price for carbon</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>This bill would require the Secretary of Energy to establish a program relating to the physical security and cybersecurity for pipelines and liquefied natural gas facilities</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Once there is a truly competitive retail market and QFs can buy backup power in the open market then and only then will the backup power guarantee no longer be essential to existing and future CHP power generators</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Let me ask you point blank does it make sense for us to have a regulatory structure where it costs almost four times as much to license a hydropower plant as it costs to license a new natural gasfired plant</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>This bill sets out a national strategy to assist US clean energy technology companies with export assistance to find new markets for their products and services and to better compete in the international marketplace</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Time of use metering is a similar application of technology which will better help electric customers understand when they use electricity the price consequences thereof and ways to save money</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>This should not be styled to effectively mandate ethanol use however</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>And finally the gains in energy efficiency come largely from new technologies and improvement to existing technologies</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>In the next 2 weeks large oil pipeline operators will be in compliance with the required baseline testing deadline of the highest risk segments set by the regulations</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>And then finally we should encompass principles that do not harm American energy workers that help to enhance their training and capacity to increase their economic success and security</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>They have to be and I am wonderingyoure over at the meeting with the gas folks12000 peopleare there any topics that are being discussed specifically as to energy efficiency</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>This authority is vested in the Secretary of Energy and has been delegated to the assistant secretary for fossil energy</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>I think one of the things just to add is our COINF2INF emissions from energy consumption are down 13 percent since 2007 so this is already actually happening</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>There has been widespread media reports and even some comments by congressional leaders of gasoline price gouging by gasoline marketers in the wake of Katrina</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Todays hearing is surfacing some concerns about the power platforms have to editorialize the things internet users read and say but at the same time the FCC is considering wholesale elimination of rules that prevent broadband providers from doing that</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>The amount of gasoline that can be supplied to a particular region may be inflexible in the short run because of various limitations on refining and transportation capabilities or product requirements unique to that region</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>The Commission has jurisdiction over sales for resale of electric energy and transmission service provided by public utilities in interstate commerce</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>There is a hearing downstairs on energy</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>OK Now those greenhouse gas emissions are not only CO2</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>As the FERC commissioners make clear in their letter a thorough assessment of the impacts of for example the proposed Clean Power Plan requires the ongoing input of diverse perspectives and expertise</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Are these coal refusetoenergy facilities typically located in a smaller community or a larger community</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Some of these accomplishments include the fact that as you mentioned Johnson Space Center with the help of FEMP technical assistance and through the use of our AFFECT which is Assisting Federal Facilities with Energy Conservation Technologies program through the use of our Federal Energy Efficiency Fund authority was able to provide 47 million of investment</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>I think what the President is most concerned about is that he would like to move the energy agenda forward</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>If not I would ask unanimous consent that wewhen we reconvene at 1030 that opening statementsthe only opening statements we will have will come from the chairman the ranking member of the full committee the chairman and the ranking member of the Energy and Environment Subcommittee</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>As far as we can tell and we have tried to look at this at EIA we cant really see a big impact in the price of gasoline from what happened with RINs in the first quarter of this year</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>When Mr Fawcett and maybe someone else was talking about the oil overseers after the American and Norwegian left and there was only the French and Russian and there was implication there that then they were being selfserving that is incorrect</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>No one has the authority to look at the big picture of how hydro fits into our national energy policy</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>I believe that we should ask ourselves how Federal investment into clean energy can improve the lives of our constituents and our communities</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>I would imagine just engaging in the economywide outcome with carbon pricing Ms Palmer</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>So this slide shows how you would replace one nuclear reactor that is 1154 megawatts with wind</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>We would strongly suggest Mr Chairman that as we talk about these transactions both before the transaction takes place and during the period in which the transaction is being carried out that we have one agency that focus on meeting those responsibilities and that be the Federal Energy Regulatory Commission</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Regarding regional impacts of an RES also raised in many of the opening statements different parts of the country have access to different types of renewable energy with different cost and performance characteristics</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>It took over a year in production and it analyzed all of the various means open to us in terms of investing in energy efficiency technologies</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>As a general matter it is obvious and beyond reasoned argument that a Director of a federal agency has the official capacity and authority to exercise governmental power or influence which could have a favorable or unfavorable impact on the interests of a grantee of that agency particularly an entity with a continuous grantee and certification relationship with that federal agency</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>In early June 2008 the MDH received data from concerned citizens that included measurements of elevated levels of hydrogen sulfide in the ambient air in their community</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>I look forward to working with you on these exciting new initiatives to take action on climate change and expand our clean energy economy</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Chairman Bilirakis for holding this hearing today</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>PGE alone is in the process of relicensing more than 600 megawatts all before the year 2006</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Siemens Ford and Volvo have all made engines that reduce particulate emissions by more than 90 percent and nitric oxides similarly remarkably reduced</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>First to Secretary Moniz I appreciate your hard work at DOE and especially the comprehensive Quadrennial Energy Review reports which we would always mention</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>First the authority Congress set forth for setting efficiency standards the Energy Policy Conservation Act is 40 years old and has not been undated to reflect new technologies and economic realities</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Public power also sells any excess power when available in the wholesale market</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>In some conversations that I have had with individuals concerned about some smaller engines those in boats or motorcycles and other specialty vehicles they have had trouble running on even blends with 10 percent ethanol</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>So that is why I am grateful to you Mr Chairman for crafting the Energy and Revenue Enrichment Act to give the Department of Energy the flexibility it needs to temporarily reenrich tails at Paducah and Portsmouth</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>The National Academy of Sciences has referred to the US electricity grid as the greatest engineering achievement of the 20th century because it delivers critical energy services to consumers in an instantaneous affordable and dependable manner</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>In any event I would like to say that I am pleased that our agenda has shifted from a debate over whether to abolish the Department of Energy or to sell off the Strategic Petroleum Reserve to a more prudent and national debate over the national energy policies</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>This will result in higherthannormal gas commodity prices even if the winter is relatively mild</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Central to energy access is lighting for example</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>For example if the fuel efficiency of our personal vehicle fleet was 42 miles per gallon today rather than 21 miles per gallon US oil demand would be lower by 4 million barrels per day oil markets would have spare capacity and the impact of any gasoline price spike would be far smaller</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>You know we have this theme about gaming the system and throughout Energy and Commerce has really been looking at this whole issue of drug pricing and trying to figure out why these prices are so high</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>And I hope that we can find new ways to use coal even cleaner than we are using it today</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>I guess what I would conclude you said you would not put a roadblock up to exporting coal</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Our nations comprehensive energy policy must ensure an affordable reliable supply of energy and nuclear energy provides one of the solutions to several policy challenges that our nation faces</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Are weas we move forward in supplementing initial fuelsalternative fuels</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>The first one is that world oil demand has grown rapidly in the last several years putting upward pressure on price</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Americas hydrocarbon renaissance has given us the gift of time</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>For example advanced nuclear technologies might be one thing that you could put into repower an existing fossil generating plant like that</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>IEA found that taking key actions now to reduce emissions could be done at no net economic cost while delay would impose trillions of dollars in costs on society</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Energy efficiency helps meet our energy needs without hurting the environment</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>fuel receipt and the transportation systems to be compatible with the currently NRC licensed storagetransportation systems then they could classify the fuel in those systems as nonstandard causing that fuel to lose its place in the DOEs fuel acceptance queue</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>My advice to you would be that there would be incentives for the continued investment and development of technology to reduce carbon which does not yet exist</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>but our ultimate vision is to establish leadership in hydrogen fuel cells</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Treatments like prescribed fire mechanical fuels reduction will not prevent wildfires from occurring but can influence how a wildfire burns</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Such macroeconomic conditions generally present from the 1930s to the 1980s maintained low electricity rates and reliable service for end customers while strong predictable returns for investors</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>So will it make electricity more or less expensive then</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Independent producers develop 90 percent of domestic wells and produce 85 percent of domestic natural gas</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>This bill is a radical rewrite of the Clean Air Act that would block any real reductions in carbon pollution from coal plants and it ignores 40 years of experience</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>East of the Mississippi most natural resource lands most historic lands are privatelyowned but protected through publicprivate partnerships whether it is the designation of historic districts or the donation of conservation and historic easements</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Hydro provides six to seven percent of all electricity generation and nearly half of all renewable generation making hydro the largest provider of renewable electricity</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>As you all know the first export of LNG to scheduled to happen later this month maybe early March at Sabine Pass in Louisiana right next to Texas my own State</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>This one is from TXU Energy down in Texas</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>I mean I dont want to be an expert in gas cans to be able to use that product</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>It has been 30 years since Congress designated Nevadas Yucca Mountain as a secure site for our Nations nuclear wastewater</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>I guess since I am from Louisiana I am associated with the sugar industry and I want to talk about cellulosic ethanol or ethanol from sugar but I have heard about hybrids I have heard about coal cellulosic corn ethanol</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>The Electric Power Research Institute which is I believe an independent and objective research institution part of the electric power industry put on a forum in Washington where they brought all of the modelers who had actually produced analyses of the LiebermanWarner bill the Clean Air Task Force the Energy Information Administration the work that was sponsored by the National Association of Manufacturers Massachusetts Institute of Technology with their EPO model EPA and Charles River Associates</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>I think we need to increase conservation and weatherization</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Shifting gears I believe the Energy Star program is a nice complement to the mandatory federal energy efficiency standards for many energyusing products in that it helps consumers identify those models that go above and beyond the minimum standards</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>One of the crazy things the FDA does not have subpoena power</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>The 2 percent allocation for refiners is intended to keep them competitive and encourage energy efficiency improvement</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Some products may not be available in your area for example but I am not sure of how a consumer would know which zone they are in as well as what the energy prices are in that part of the country</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>The markets are so tight though that if we can moderate demand a little bit our analysis using the same computer models that DOE uses indicates that with 4 to 5 percent energy savings we can reduce these prices over the next decade by 20 percent or more</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>We see Wisconsins electricity demand growing by almost 3 percent per year</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Well the World Resources Institute doesnt take a particular position on this specific issue but certainly by reducing these upstream methane emissions we could ensure that natural gas is lowercarbonemittingor lowergreenhousegasemitting than coal or oil when oil and diesel fuel is used for transportation</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>The changes would inappropriately expand FERCs natural gas authority attempt to undermine States rights and undermine the important role that other Federal and State agencies play in protecting natural resources for the public</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>And of course it is troubling as a consumer but also I mean I guess because of theof 10 percent ethanol I spend a lot of time at my lawn mower repair shop Lowerys Motors in Lewisville Texas and he said that the ethanol in gasoline had been very good for the lawn mower repair business or the small engine repair business because he gets a lot of business</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Oil prices are manipulated at the top by OPEC often for the express purpose of weakening competition including in the oil industry</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>They have plenty of power already and influence as they demonstrated by instructing the Republican caucus to go pass this tax bill</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>With respect to key goals FreedomCAR is focused on petroleumfree emissionsfree transportation with an emphasis on hydrogen fuel cells and also on systems and components applicable to many types of vehicles</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>It wasnt that long ago that we thought we were out of natural gas as well</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>And you need to understand how they function and just going in and building a tighter envelopethis happened when I was a code official back in the early 90s is the energy code started requiring tighter construction</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Energy is the issue and it is one we need to deal with thoughtfully carefully deliberately through the legislative process</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>So you do acknowledge that using a lot of fuel does in fact create jobs</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Again I have those plants I have coal plants but I also have refineries and chemical plants that have another issue</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>The exemption recognizes that manufacturing companies are not in the business of generating and selling power and are not creating market problems</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Comprehensive Review and Recommendations Pursuant to Section 603 of the Energy Act of 2000</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>We will invest in medical research and clean energy technology</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>The wood products industry is a leading user of wood fiber and producer and user of carbonneutral renewable biomass energy to run our plants</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>The experts EPA and the National Academy of Sciences have already drawn the conclusion that especially in the short run when we need greenhouse gas reduction the most corn ethanol is increasing emissions by increasing the amount of carbon that is released into the atmosphere</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>It is our ability to capture opportunities in lowcarbon technology reduce dependence on imported foreign oil and catalyze improvements in productivity more broadly</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Surrounded by 10 feet of polluted oilslick water without power or reliable communications the staff at Memorial worked for nearly five days to treat feed and evacuate patients families and local residents who sheltered in the hospital</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Production off Louisianas shore alone contributes an average of 5 billion a year to the Federal Treasury and that was when oil was less than the 68abarrelplus today</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>The Federal Power Act requires FERC to balance those competing interests in issuing a license because no one use of a river for power drinking water irrigation recreation or other use should automatically take precedence</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>From a consumers point of view the Nation will be better off if we have a wide range of generation options and let the market work out the most cost effective solution to supplying our energy needs over time</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>I think essential to the Yucca Mountain project to store the spent fuel down there would be a rail line</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Instead what weve learned from a steady stream of press reports and congressional hearings is that bullet EPA in fact concluded that greenhouse gas emissions endanger public welfare and submitted its finding to OMB in December of last year</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>STATEMENT OF SUZANNE RUDZINSKI DIRECTOR OFFICE OF RESOURCE CONSERVATION AND RECOVERY OFFICE OF SOLID WASTE AND EMERGENCY RESPONSE ENVIRONMENTAL PROTECTION AGENCY Ms Rudzinski</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Should the interstate shipment of coal be stopped because of the pollution it causes</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>On September 21st EPA expanded this effort in order to minimize potential fuel supply disruptions caused by Hurricane Rita</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>TESTIMONY OF THOMAS N PYKE JR CHIEF INFORMATION OFFICER US DEPARTMENT OF ENERGY Mr Pyke</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>The Bipartisan Policy Centers June 2011 analysis of the rules also found that scenarios in which electric system reliability is broadly affected are unlikely to occur</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>You say coal is not competitive</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>As a result of this proposal the power rates in many areas in Arkansas that have not benefited from the economic recovery would increase</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Our aim is to strengthen energy markets and encourage innovation throughout the electricity sector giving consumers more choice and greater control over their energy decisions while also benefiting the environment</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Recent AEP initiatives include Mountaineer Plants 2009 startup of the worlds first carbon capture and storage demonstration at a coal power plant and the commissioning of an ultrasupercritical John W Turk coal power plant one of the worlds most efficient coal power plants</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Our investments are designed to deliver and promote reliable marketavailable policies practices and life cycle cost effective technologies that will permanently reduce a trajectory of US energy demand growth and carbon footprint of the built environment while maintaining strong economic growth</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>In the testimony we have submitted for the record we have outlined some of the concerns we have with the electricity situations in California and New York</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Not only steel producers chemical plants or power plants are taking part in this trading also banks and insurances making this really a vivid trading place</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>She thought everybody had asthma because they are all breathing that diesel smoke and toxic fumes</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Pike is a participating member of a group called the Center for Energy Workforce Development</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>It is the utilities driving renewable growth and many other independent power producers driving renewable growth and we can take advantage of those independent power producers through very competitive RFPs and PPAs and certainly with our own facilities</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>The fossil fuel industry and House Republicans have a credibility problem when it comes to claims about the economic impacts of the Clean Air Act</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>The American Gas Association represents 192 local energy utility companies that deliver natural gas to more than 53 million homes businesses and industries throughout the United States</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>As we develop a comprehensive national energy policy efficiency and conservation are definitely part of what needs to be a comprehensive plan that also needs to include the development of our own natural resources to reduce our dependence on foreign oil</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>The company also engages in new hydropower development through the building of new plants at existing dams</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Mr Barrett under the Nuclear Waste Policy Act we gave Nevada the tools which really means the money they need to oppose the Yucca licensing process at the NRC</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>The article went on to note that in just the Bakken and Three Forks plays alone the US Geological Survey estimated that there are 74 billion barrels of recoverable oil and 67 trillion cubic feet of natural gas waiting to be tapped</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Mr Stevens you mentioned in your testimony the challenge of the government policies that are picking winners and losers and you specifically mentioned the renewable fuel standards mandate for biomass fuels as a policy that could hurt the longterm sustainability of forests</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>We do send ethanol by barge as well but I think in this particular study what we are looking at is toxicity</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>We greatly appreciate the bipartisan support for coal in the Committee as reflected in both the Housepassed version of HR</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>We recently canceled a clean coal boiler project that is a good example of this potential outcome</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Timely advance in clean coal technology will require significant cost share funding for research and development projects and demonstrations of emerging technology and tax incentives to reduce the risks and encourage early development and refinement of the new technologies</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>This is clear in the repeated attacks on our oil and natural gas industry and its people which has provided tremendous opportunity and driven advances in cleaner energy generation that are benefiting the globe</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>And so a lot of our research focuses on advanced technologies energy storage capabilities advanced minigrids or microgrids as they are called</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>The other thing we can do is to make sure that any difficulties associated with splashblended ethanol are addressed by allowing us to incorporate ethanol into other ethers for example ETBE</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>And the second is that Congress has power to substantially correct it if it so chooses</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>That is something it seems to me the Energy and Commerce Committee and particularly this subcommittee should make a high priority</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>These include Adding new audit programs Creating guidelines for disclosure of reliability violations Strengthening existing reliability standards and enhancing compliance with reliability rules Improving operator training and Enhancing vegetation management practices around power lines</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>We simply cannot support eliminating the RFS program as the draft envisions without a much stronger signal to the market that ethanols role in our fuel supply will continue to grow</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>And research shows that because prescription drugs are manufactured by reputable pharmaceutical companies they are prescribed by licensed clinicians they are dispensed by pharmacists they are perceived as safer to abuse than illegal drugs and we know that is not true and we know that young people arent buying them in a piece of tinfoil from behind a gas station</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Renewable fuel standard is putting 36 billion gallons of nongasoline into the gasoline and diesel supply through the next few decades</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>The way this technology or what enables this is that we took the genes that encode enzymes that would transform the sugar into the fuels</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>The Department of Energy was supposed to select two scientifically appropriate sites one east of Mississippi and one west of Mississippi River</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>This bipartisan effort underscores one of the key goals of the Energy and Commerce Committee helping American entrepreneurs and established businesses expand to create jobs for American workers and help improve the lives of consumers</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>STATEMENTS OF RODNEY MASNEY VICE PRESIDENT TECHNOLOGY SERVICE DELIVERY INFORMATION TECHNOLOGY OWENSILLINOIS THOMAS D BIANCULLI CHIEF TECHNOLOGY OFFICER ZEBRA TECHNOLOGIES CORPORATION DR THOMAS R KURFESS PROFESSOR AND CHAIR IN FLUID POWER AND MOTION CONTROL GEORGE W WOODRUFF SCHOOL OF MECHANICAL ENGINEERING GEORGIA INSTITUTE OF TECHNOLOGY SANJAY POONEN CHIEF OPERATING OFFICER VMWARE STATEMENT OF MR MASNEY Mr Masney</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>So therefore the regional power market does not see the price signal that RGGI is intended to deliver</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Ms Eckdish can you quickly discuss how the nature of diesel engines poses a unique challenge to our local communities</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Our environment and our economy depend on congressional action to confront the threat of climate change and secure our energy independence</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>In addition I believe an amendment to the FPA to give the Commission authority to assess penalties in addition to refunds and interest could act as a powerful deterrent against the abuse of market power</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>As you know Mr Chairman there have been many developments in the Nations energy portfolio since FERC issued Order No</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>So the real question is what is the cost of the fuel</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>There are a lot of options available to us in the short and long term to produce hydrogen from a variety of different sources and thats one of its attractions</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Mr Blake we have noted that since the NES was adopted the National Energy Strategy that opened the wholesale markets in electricity the wholesale market has increased by 400 percent and prices have steadily declined in the wholesale market during that period of time</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>This group spent over two years evaluating and documenting best practices from across all types of energy pipeline systems</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>We dont just rely on Idaho National Lab although Idaho National Lab is a flagship lab for nuclear energy we are relying on Oak Ridge we are relying on many of the others and Lawrence Livermore and other labs</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Today Big Oil and Big Coal have been working with the Republican thought police to comb through each and every reference to global warming pollution in the Clean Air Act and then disappear them sending scientific consensus down the memory hole at the expense of public health and welfare</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>This subcommittee this subcommittee should work together to prioritize the reliability of our power sector</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Chair recognizes the ranking member of the Energy and Commerce Committee the gentleman from Texas Mr Barton</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Electricity generated from coal is used in all 50 states</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>And if we focused our time energy finances resources on helping the entire world and not just the United States we would be moving you know to the future a little faster</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>I know their program is what they are trying to develop there is also been using solar panels so they can go to areas without electricity and still be able to process water for families in that immediate area</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>That being said Dr Friedmann how do you react to the allegations that the administration is waging this war on coal</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Technology can also be a driver for increased energy efficiency and Reps McNerney Welch and Kinzinger have introduced bills that analyze and support new technologies in smart buildings and water systems</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>It would affect ethanol prices to some extent</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Compliance with the Reliability Rules is required by the New York ISO and all entities engaged in transactions in the New York State Power System New York ISONYSRC Agreement Section 21</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Well from a fire science perspective you always have to remember you have to have drying of the fuels to a point where they can be ignited and sustain ignition and you have to have ignition</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>NRC currently bills its licensees or applicants about 263 per hour which is a high burden on companies seeking to develop new nuclear technologies</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>In 2017 US carbon emissions were the lowest they have been since 1992 and are projected to remain steady in upcoming years more than 10 percent below 2005 levels</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Intense foreign competition from Stateowned enterprises poses another challenge for US companies particularly in the civil nuclear sector</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>In San Joaquin Valley the stationary sources which include agriculture oil and gas production your ma and pa operations all the way to your biggest manufacturing they make up only 15 percent of the pollution now because we have imposed the toughest regulations in the nation on them</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Additional material submitted for the record follows Knoxville Utilities Board and Memphis Light Gas Water DiVision INTRODUCTION AND SUMMARY Memphis Light Gas and Water Memphis and Knoxville Utilities Board Knoxville submit this statement for the record of the Committees hearings on electric industry restructuring issues to set forth their views on the need for legislation related to the Tennessee Valley Authority TVA</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Now were focusing on climate tact and climate energy</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>In addition to being President and CEO of CONSOL Energy I want to tell you a little bit about Mr Harvey</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Energy prices soared and carbon pollution increased</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>And what is the US consumption of gasoline per day</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Today we depend on these technologies for everything from social interaction to home security the operation of critical services like power plants and the electric grid</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>So againit came up in the other hearing and I do feel obligated to point outthere is a limit to how much energy you can import if everyone is using their system to the maximum</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>It is a lesson for all of us as we consider the location of new LNG terminals as we become more dependent on natural gas</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>They have no electricity</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>We have a distinguished panel that will cover all aspects of the issue from coal production to power generation from labor issues to environmental impacts from clean coal technology to consumer impacts</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>They include the bioremediation of mixed waste at many of the contaminated DOE sites the witchs brew that we have left from the legacy of cold war also the enhanced sequestration of carbon by the terrestrial and marine biosphere in order to reduce the atmospheric concentrations of greenhouse gases in the atmosphere and also as has already been mentioned the production of clean fuels such as hydrogen through the miracles of biotechnology</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>The principal environmental benefits associated with coal gasification as compared to coal combustion processes are in the short term significantly lower emissions of serious air pollutants such as sulfur dioxide NOINFXINF and I should say almost virtual removal of volatile mercury</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>For illustrative purposes 43 quads is equivalent tobullet Over 20 million short tons of coal or enough coal to fill a coal train of railroad cars almost 2000 miles longbullet 418 billion cubic feet of natural gasbullet Almost 35 billion gallons of gasoline or more than 10 days of US gasoline consumptionbullet Almost 10 hours of the entire worlds energy use based on consumption levels in 1996bullet Nearly half of the approximate annual primary consumption of any one of the following states Arizona Arkansas Colorado Iowa Kansas Mississippi or Oregon based on consumption levels in 1996 This 43 quads represents a 39 total annual savings in cooling and a 19 savings in heating or a total heat and cooling savings of approximately 25 billion per year by 2010 given an adoption baseline of 1996</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>The environment doesnt benefit and you have these constricted flows and it seems to me it does not benefit anybody other than the industry that is out there designed to shut down any progress on energy development</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>This regulation will not only stifle innovation but inject uncertainty into the manufacturing sector while creating less energyefficient products and higher energy prices for consumers</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>My home State of New Jersey has a draft energy master plan that calls for the electrifying the building sector by 2050 and reducing the reliance on natural gas for heating homes and buildings</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Just a few short years ago many would have scoffed at the suggestion that America could produce enough domestic energy to expand its exports or that low natural gas prices would induce a manufacturing renaissance</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>The reference case includes the effects of several policies aimed at increasing energy efficiency in both enduse technologies and supply technologies including minimum efficiency standards and voluntary energy savings programs</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>In 2009 DOE was appropriated about 36 billion under the Recovery Act to increase taxpayer spending on energy efficiency environmental cleanup loan guarantees and various energyrelated research development and deployment projects and activities</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>A leading example is the Energy Star Program which is delivering significant results</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Again less American jobs more dependence on foreign oil</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>We know that but you seem to be saying that so many on the other side that it is all due to man or burning coal fossil fuels and that just simply doesthat is why there is an ongoing debate on it and you are coming from your position</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>You do have on the website a page and email address to accept public comments and requests regarding the Federal Power Act section 202 but I just want to make sure that they will be posted for the public to see</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>First engage the consumer in reducing their own energy use and carbon footprint through the Energy Star Program</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>FERCs authority to review proposed mergers should be expanded to include mergers of holding companies transfers of generation facilities and consolidation of electric and natural gas companies</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Now sir since coming to the EPA I would like to ask you have you met with the American Petroleum Institute</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>For example the Chairman of the Crow Nation the tribal Nation in Montana has testified before congress that the importance of coal mining to the economy of the Crow Reservation cannot be overstated</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>One way that I believe the commission can help to ensure reliability is through open communication and a strong working relationship with the EPA the Department of Energy the States and NARUC the North American Electric Reliability Corporation or NERC regional transmission organizations independent system operators and industry</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>The Clean Power Plan as proposed will call that into question</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>The USGS has actively participated in two previous Federal reviews of MTBE and other oxygenates in gasoline</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>In addition the quadrennial energy review will provide an opportunity to look at obstacles to building gathering lines that would allow you to capture natural gas</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>In approving our report Secretary Abraham said The management of the nuclear weapons complex is my most important responsibility as Secretary of Energy</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>The only real downside to nuclear energy is figuring out what to do with the waste</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>We regularly review our program to identify ways to improve it and in just the last 2 years we reduced the threshold for positive tests for testosterone greatly increased our use of highly sensitive carbon isotope ratio testing increased inseason random testing by 40 percent increased the penalty for repeat violators added many new substances to our prohibited list and tripled the number of times a player may be tested in the offseason</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>We can all agree that we do need some oil and gas development</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>We depend on Polk to meet our customers energy needs</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Finally we must determine the most environmentally sound methods of increasing energy supplies for our country</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>By themselves smallload or residential customers lack the power and resources to negotiate better deals banding together through aggregation programs local governments can wield purchasing clout on behalf of their residents for lower prices</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>In 2006 we actually voluntarily capped our own greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>To highlight a few first we should reestablish and expand Federal agency targets for annual improvements and energy efficiency renewable energy and other key metrics and make needed changes to unlock the use of contracting mechanisms that leverage private funds for public efficiency and renewable projects</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>The Presidents own energy secretary the Presidents own energy secretary says Somehow we have to figure out how to boost the price of gasoline to the levels in Europe</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Make no mistake the Clean Power Plan is coerciveeither a state comes up with a plan that meets with EPAs approval or EPA will impose its own Federal Implementation Plan</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>I believe the Department of Energy actually flew a Saab into the US to get some testing done at Oak Ridge recently but there is technology available</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Benefiting from the economyofscale by operating and servicing a larger number of nuclear plants within a single organization these companies will be in a position to handle the financial and technological challenges that must be managed in launching the next generation of nuclear plants</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>We see this in the programs that have received proposed budget increases like the 29 billion for the Office of Energy Efficiency and Renewable Energy a 40 percent increase</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>It is affecting a lot of other industries that depend on natural gas as either a raw material or as a fuel</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Although the accident ultimately caused two fatalities and the demolition of the area within the facility the most catastrophic consequence the release of almost 7 tons of MIC gas did not occur</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Electric utilities also have a long history of providing mutual assistance and the same concept is being applied by the ESCC for mutual support in response to cyber incidents though challenges unique to cyber must be taken into account</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>The Commission has been upheld in its interpretation of the Federal Power Act as excluding generation facilities per se from our direct authority</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Commander Lippold are you concerned that this legislation essentially permanently lifts the ban even though we may start to see a decrease in oil production as early as the 2020s</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Electric reliability and environmental protection are both important to this countrys future</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>What I find Congressman Deutsch very unfortunate is that our company who worked very hard in building something that is very unique that whoever the buyer is of our company whether it is Hutchinson One Power Singapore Technologies or it turns out to be somebody else is going to make an incredibly good acquisition because we built a worldwide platform that cost us over 12 billion</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>While the blackout was a singular unprecedented event the fact remains that our national electric transmission system needs significant improvement and that we need to continue our efforts to enhance system reliability by expanding and improving the transmission system capabilities and interconnections</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>How do we construct the buildings of the future that meet the demands and growing population while conserving our limited resources</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Now its been reported that EPA has had Toyota run emissions tests on clean burn diesel vehicles for the European market</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>We have learned that MTBE if leaked or spilled can contaminate water supplies more readily than other components of gasoline</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Nobody disagrees with the need for the additional power</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Mr English you indicated that you are looking for an out was it 4 million megawatts is that what it was</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Every time DOE issues a new rule it issues a press release estimating the rules benefit in cost savings for consumers and energy savings for the Nation based on theoretical models</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Joe Barton Chairman Committee on Energy and Commerce Thank you Mr Chairman for holding this hearing to determine the current status of the Alaska Natural Gas Pipeline</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Putting the current situation in a broader more positive perspective however the US has some of the cleanest and least costly fuels in the world</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>My testimony aligns with the following points America is facing two national security threats one around climate change and the other around the US nuclear power enterprise</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Our staff closely tracked the markets to make sure that no one took advantage of the situation to manipulate the energy markets</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Last year US production increased over a million barrels a day and if we were to repeal the ban on crude oil exportsnow this is an opinion</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>I think all of us are committed to trying to find out what did take place and put the steps in place that are necessary to make this a safersafer and sounder future for us in terms of oil and gas exploration</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>This is what he said Simply put the Clean Air Act oxygen mandate slows environmental improvement raises costs and is no longer required to ensure substantial and sustained ethanol use in California</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>And you indicated up front that innovation and energy was one of your was one of your goals</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>If we ask any energy trader they will tell you that is the first thing that they look at</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Moreover if abnormally warm weather prevails this summer the current market may become highly sensitive to demand particularly in the Western and South Central United States where natural gas is heavily used for power generation</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>The Department of Energys 32 billion budget proposal serves as a reminder of the broad range of defense science energy and environmental activities that your agency pursues to perform its really important critical I would say national and energy security missions</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>So if that were correct and I dont disagree with you on that coming from a coal State but if that is correct then why are we having policy that is moving us in that direction</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Congressman to me the answer to your questions depends on what your view of future fossil fuel prices are</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>But our bipartisan group has reached out and said you solveyou give us a waiver on ethanol</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>At the risk of going a little bit off topic for what this panel was asked to talk about which was lowcarbon electricity and carbon capture and storage and renewables I wanted to at least frame the issue as also associated with the renewable fuel standard that was passed by this Congress previously</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>A special report of the Institutes oxygenates evaluation committee Cambridge MA Health Effects Institute April 1996 httpwwwhealtheffectsorgPubsoxysumhtm National Institute of Environmental Health Sciences 2002 MTBE in gasoline National Institute of Environmental Health Sciences March 13 2002 httpwwwniehsnihgovexternalfaqgashtm SUP13SUP Toccalino supra citing inter alia National Science and Technology Council 1996 Interagency assessment of potential health risks associated with oxygenated gasoline Washington DC National Science and Technology Council Committee on Environment and Natural Resources February 1996 httpwwwostpgovNSTChtmlMTBEmtbetophtml Office of Science and Technology Policy 1997 Interagency assessment of oxygenated fuels Washington DC Office of Science and Technology Policy National Science and Technology Council Executive Office of the President of the United States June 1997 264 p httpwwwepagovomsregsfuelsostpfinpdf U S Environmental Protection Agency 1997 Drinking water advisory Consumer acceptability advice and health effects analysis on methyl tertiarybutyl ether MTBE Washington DC U S Environmental Protection Agency Office of Water EPA822F97009 December 1997 48 p httpwwwepagovwatersciencedrinkingmtbepdf</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Of course when Katrina did hit it did substantially more damage to the energy infrastructure than the futures market had anticipated and prices increased further</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>I remember this from a former colleague who was a Democratic insurance commissioner and saying that one of the problems that they ran into is they are running into things like when you have overseas employees and you provide them medical care if you want to send somebody to be an oil worker in Nigeria or something you know you are not only going to have to pay them well but you are going to have to make surethey are going to be worried about well hey you are sending me off to work on an oil platform in some Third World country what happens if something happens to me medically</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>But the problem is that even with this particular issue included with the high gas prices we are not seeing any correspondence between underlying costs and prices in the wholesale market</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>And the clean energy sector employed roughly three times more workers than the fossil fuel sector in 2019</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Over twenty workshops were held around the country involving academics businesspeople representing a range of industries including manufacturing power generation and tourism and people who work closely with land and water ecosystems including resource managers ranchers farmers foresters and fishermen</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Question 3 How does the new supply margin market power test in the Commissions order of November 20 differ from the established hubandspoke test for market power</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Whereas much of the risk in developing the traditional telephony networks was shouldered long ago in a market where the incumbents had monopoly power the development and deployment of broadband presents an enormous and immediate financial risk for firms</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Did we find a market power abuse in California</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Second my second point the rising US gasoline prices has come at a time of soaring US gasoline production</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Activated carbon is a specially prepared product of coal or biomass that is able to adsorb many chemicals from gases or liquids</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>When EPA announced plans to control benzene emissions from chemical production plants you know remember that industry claimed pollution controls would cost over 350000 per plant but instead technological innovation led to replacement of benzene with other chemicals and the compliance costs turned out to be zero</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>How many are actively involved in producing ethanol or biodiesel portion of the refineries</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>It has helped integrate renewables online</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>We have got to have zero emissions coal if we are going to meet our needs if we are going to compete if we are going to rebuild America and also let us keep our efforts for clean nuclear energy as well</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>This program would establish a unique partnership between government and industry to help ensure we meet midterm gas demand through the development of technically challenged but potentially prolific provinces</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>producing the same oil that then we would have to be paying more for because then it would be coming from another country</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>September 29 2008 an eightinch high pressure gas line at the YPad location separated sending three pieces of pipe to the tundra</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Is that enough reliance or should we do modeling before we resume exploration and drilling in the Gulf of Mexico</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>These are just a few of the growing costs of carbon pollution</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>As shown in Figure 3 two consequences of this flat production have been significant shortterm increases in natural gas prices reaching to near 1000MBtu combined with a substantial increase in its longterm price trend</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>REGIONAL TRANSMISSION ORGANIZATIONS On July 12 2001 the Federal Energy Regulatory Commission issued a number of orders which advanced the concept of the formation of four large regional transmission organizations in addition to ERCOT in Texas to better facilitate the movement of electricity within the continental United States</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>The recent crisis in California generated great uncertainty in our nations electricity markets and brought to the forefront serious deficiencies in Americas system of electricity transmission generation and distribution</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>But in fact the Department of Energy Clean Energy Future study I mentioned above uses the same model run by EIA and reaches dramatically different conclusions</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>But the idea is to produce or to construct a coal gasification facility that will simultaneously produce electricity and produce hydrogen</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>We are also taking a comprehensive look at electricity market structure and recent developments and challenges for the way that we generate transmit and consume electricity in the nation with an eye toward updating the relevant laws governing our electricity sector</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>And I know that GE in my district is working on advanced battery manufacturing that will address storage capacity for renewables</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>An ethanol plant in these areas is an economic engine that revitalizes those areas in demonstrable ways</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>There is a great controversy right now Congressman over the Environmental Protection Agencys proposed rules for particulate emissions from coal plants and also greenhouse gas emissions</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>The future will belong to the country that builds an energy infrastructure to support a cleaner low carbon economy</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Next to Ms Saunders is Mr Tim Richards who is the Managing Director of International Energy Policy for General Electric Company</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Well from my perspective its put the oil industrys perspective first and the rural communities have taken a lot of abuse through these Small Refinery Exemptions</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Mr Danly am I correct that under PURPA qualified facilities must have a capacity less than 80 megawatts</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>But it still leaves the rest of the number which is the 60 or 70 percent which has come from or will have to come from hydrocarbons using advanced technologies</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>OK Do pollution controls affect the power plants energy efficiency</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Why should we wait for a great big energy bill which may or may not come during your lifetime and mine</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>I havein the Energy Bill we talkedwe addressed some downwind provisions</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>I think in the latter part of December in the midcontinent area if you went out and tried to buy gas it was very difficult</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Creation of a governmentindustry partnership to pursue two short term objectives resolving technical andor economic issues associated with the new nuclear plant designs and validating the new licensing processverifying that it works as intended and will not place private sector investment at risk</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/train/relevancy-train-944601.xlsx
+++ b/data/train/relevancy-train-944601.xlsx
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
